--- a/Jogos_do_Dia/2023-05-17_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-05-17_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI31"/>
+  <dimension ref="A1:AI50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -642,13 +642,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.51</v>
+        <v>2.6</v>
       </c>
       <c r="H2" t="n">
-        <v>3.45</v>
+        <v>3.2</v>
       </c>
       <c r="I2" t="n">
-        <v>2.37</v>
+        <v>2.45</v>
       </c>
       <c r="J2" t="n">
         <v>1.01</v>
@@ -663,10 +663,10 @@
         <v>3.5</v>
       </c>
       <c r="N2" t="n">
-        <v>1.78</v>
+        <v>1.87</v>
       </c>
       <c r="O2" t="n">
-        <v>1.92</v>
+        <v>1.87</v>
       </c>
       <c r="P2" t="n">
         <v>1.4</v>
@@ -714,7 +714,7 @@
         <v>1.91</v>
       </c>
       <c r="AE2" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="AF2" t="n">
         <v>1.49</v>
@@ -748,97 +748,97 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Iwaki</t>
+          <t>Fujieda MYFC</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Omiya Ardija</t>
+          <t>Jubilo Iwata</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.73</v>
+        <v>2.4</v>
       </c>
       <c r="H3" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="I3" t="n">
-        <v>4</v>
+        <v>2.55</v>
       </c>
       <c r="J3" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="K3" t="n">
-        <v>8.4</v>
+        <v>10</v>
       </c>
       <c r="L3" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="M3" t="n">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="N3" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="O3" t="n">
-        <v>1.67</v>
+        <v>1.95</v>
       </c>
       <c r="P3" t="n">
-        <v>1.41</v>
+        <v>1.31</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.7</v>
+        <v>3.28</v>
       </c>
       <c r="R3" t="n">
-        <v>1.87</v>
+        <v>1.55</v>
       </c>
       <c r="S3" t="n">
-        <v>1.87</v>
+        <v>2.35</v>
       </c>
       <c r="T3" t="n">
-        <v>1.17</v>
+        <v>1.65</v>
       </c>
       <c r="U3" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="V3" t="n">
-        <v>1.95</v>
+        <v>1.45</v>
       </c>
       <c r="W3" t="n">
-        <v>0.75</v>
+        <v>1.43</v>
       </c>
       <c r="X3" t="n">
-        <v>0.14</v>
+        <v>1.57</v>
       </c>
       <c r="Y3" t="n">
-        <v>1.61</v>
+        <v>1.54</v>
       </c>
       <c r="Z3" t="n">
-        <v>1.35</v>
+        <v>1.69</v>
       </c>
       <c r="AA3" t="n">
-        <v>2.96</v>
+        <v>3.23</v>
       </c>
       <c r="AB3" t="n">
-        <v>1.51</v>
+        <v>2.52</v>
       </c>
       <c r="AC3" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AD3" t="n">
-        <v>3.07</v>
+        <v>1.75</v>
       </c>
       <c r="AE3" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.48</v>
+        <v>1.52</v>
       </c>
       <c r="AG3" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="AH3" t="n">
-        <v>2.4</v>
+        <v>2.47</v>
       </c>
       <c r="AI3" t="n">
         <v>3.2</v>
@@ -863,97 +863,97 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Tochigi</t>
+          <t>Machida Zelvia</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Tokyo Verdy</t>
+          <t>Renofa Yamaguchi</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>3.45</v>
+        <v>1.55</v>
       </c>
       <c r="H4" t="n">
-        <v>3.02</v>
+        <v>3.6</v>
       </c>
       <c r="I4" t="n">
-        <v>2.03</v>
+        <v>5</v>
       </c>
       <c r="J4" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K4" t="n">
-        <v>7.8</v>
+        <v>8.5</v>
       </c>
       <c r="L4" t="n">
-        <v>1.52</v>
+        <v>1.31</v>
       </c>
       <c r="M4" t="n">
-        <v>2.43</v>
+        <v>3.08</v>
       </c>
       <c r="N4" t="n">
-        <v>2.6</v>
+        <v>1.95</v>
       </c>
       <c r="O4" t="n">
-        <v>1.43</v>
+        <v>1.8</v>
       </c>
       <c r="P4" t="n">
-        <v>1.51</v>
+        <v>1.42</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.55</v>
+        <v>2.75</v>
       </c>
       <c r="R4" t="n">
-        <v>1.89</v>
+        <v>2.02</v>
       </c>
       <c r="S4" t="n">
-        <v>1.85</v>
+        <v>1.74</v>
       </c>
       <c r="T4" t="n">
-        <v>1.62</v>
+        <v>1.14</v>
       </c>
       <c r="U4" t="n">
-        <v>1.3</v>
+        <v>1.26</v>
       </c>
       <c r="V4" t="n">
-        <v>1.25</v>
+        <v>2.3</v>
       </c>
       <c r="W4" t="n">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="X4" t="n">
-        <v>1.71</v>
+        <v>1.14</v>
       </c>
       <c r="Y4" t="n">
-        <v>1.32</v>
+        <v>1.49</v>
       </c>
       <c r="Z4" t="n">
-        <v>1.26</v>
+        <v>1.2</v>
       </c>
       <c r="AA4" t="n">
-        <v>2.58</v>
+        <v>2.69</v>
       </c>
       <c r="AB4" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AG4" t="n">
         <v>2.2</v>
       </c>
-      <c r="AC4" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>2.1</v>
-      </c>
       <c r="AH4" t="n">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="AI4" t="n">
         <v>0</v>
@@ -978,97 +978,97 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>ThespaKusatsu Gunma</t>
+          <t>JEF United</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Mito Hollyhock</t>
+          <t>Shimizu S-Pulse</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.32</v>
+        <v>4</v>
       </c>
       <c r="H5" t="n">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="I5" t="n">
-        <v>2.67</v>
+        <v>1.73</v>
       </c>
       <c r="J5" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="K5" t="n">
-        <v>8.4</v>
+        <v>10</v>
       </c>
       <c r="L5" t="n">
-        <v>1.31</v>
+        <v>1.25</v>
       </c>
       <c r="M5" t="n">
-        <v>3.08</v>
+        <v>3.75</v>
       </c>
       <c r="N5" t="n">
-        <v>2.12</v>
+        <v>1.75</v>
       </c>
       <c r="O5" t="n">
-        <v>1.64</v>
+        <v>2</v>
       </c>
       <c r="P5" t="n">
-        <v>1.43</v>
+        <v>1.41</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.65</v>
+        <v>2.7</v>
       </c>
       <c r="R5" t="n">
-        <v>1.95</v>
+        <v>1.68</v>
       </c>
       <c r="S5" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="T5" t="n">
         <v>1.8</v>
-      </c>
-      <c r="T5" t="n">
-        <v>1.3</v>
       </c>
       <c r="U5" t="n">
         <v>1.25</v>
       </c>
       <c r="V5" t="n">
-        <v>1.57</v>
+        <v>1.18</v>
       </c>
       <c r="W5" t="n">
-        <v>2</v>
+        <v>1.29</v>
       </c>
       <c r="X5" t="n">
-        <v>1.57</v>
+        <v>1.43</v>
       </c>
       <c r="Y5" t="n">
-        <v>1.04</v>
+        <v>1.82</v>
       </c>
       <c r="Z5" t="n">
-        <v>1.31</v>
+        <v>1.73</v>
       </c>
       <c r="AA5" t="n">
-        <v>2.35</v>
+        <v>3.55</v>
       </c>
       <c r="AB5" t="n">
-        <v>1.91</v>
+        <v>2.1</v>
       </c>
       <c r="AC5" t="n">
         <v>8</v>
       </c>
       <c r="AD5" t="n">
-        <v>2.2</v>
+        <v>1.91</v>
       </c>
       <c r="AE5" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.49</v>
+        <v>1.58</v>
       </c>
       <c r="AG5" t="n">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="AH5" t="n">
-        <v>2.37</v>
+        <v>2.65</v>
       </c>
       <c r="AI5" t="n">
         <v>3.3</v>
@@ -1093,97 +1093,97 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>JEF United</t>
+          <t>ThespaKusatsu Gunma</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Shimizu S-Pulse</t>
+          <t>Mito Hollyhock</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>4</v>
+        <v>1.67</v>
       </c>
       <c r="H6" t="n">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="I6" t="n">
-        <v>1.7</v>
+        <v>4.75</v>
       </c>
       <c r="J6" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="K6" t="n">
-        <v>10</v>
+        <v>8.4</v>
       </c>
       <c r="L6" t="n">
-        <v>1.25</v>
+        <v>1.31</v>
       </c>
       <c r="M6" t="n">
-        <v>3.75</v>
+        <v>3.08</v>
       </c>
       <c r="N6" t="n">
-        <v>1.73</v>
+        <v>2</v>
       </c>
       <c r="O6" t="n">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="P6" t="n">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.7</v>
+        <v>2.65</v>
       </c>
       <c r="R6" t="n">
-        <v>1.68</v>
+        <v>1.95</v>
       </c>
       <c r="S6" t="n">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="T6" t="n">
-        <v>1.8</v>
+        <v>1.3</v>
       </c>
       <c r="U6" t="n">
         <v>1.25</v>
       </c>
       <c r="V6" t="n">
-        <v>1.18</v>
+        <v>1.57</v>
       </c>
       <c r="W6" t="n">
-        <v>1.29</v>
+        <v>2</v>
       </c>
       <c r="X6" t="n">
-        <v>1.43</v>
+        <v>1.57</v>
       </c>
       <c r="Y6" t="n">
-        <v>1.82</v>
+        <v>1.04</v>
       </c>
       <c r="Z6" t="n">
-        <v>1.73</v>
+        <v>1.31</v>
       </c>
       <c r="AA6" t="n">
-        <v>3.55</v>
+        <v>2.35</v>
       </c>
       <c r="AB6" t="n">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="AC6" t="n">
         <v>8</v>
       </c>
       <c r="AD6" t="n">
-        <v>1.91</v>
+        <v>2.2</v>
       </c>
       <c r="AE6" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.58</v>
+        <v>1.49</v>
       </c>
       <c r="AG6" t="n">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="AH6" t="n">
-        <v>2.65</v>
+        <v>2.37</v>
       </c>
       <c r="AI6" t="n">
         <v>3.3</v>
@@ -1208,100 +1208,100 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Machida Zelvia</t>
+          <t>Iwaki</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Renofa Yamaguchi</t>
+          <t>Omiya Ardija</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.53</v>
+        <v>1.75</v>
       </c>
       <c r="H7" t="n">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="I7" t="n">
-        <v>5.5</v>
+        <v>4.2</v>
       </c>
       <c r="J7" t="n">
         <v>1.03</v>
       </c>
       <c r="K7" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="M7" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="N7" t="n">
+        <v>2</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="T7" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="U7" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="V7" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AC7" t="n">
         <v>8.5</v>
       </c>
-      <c r="L7" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="M7" t="n">
-        <v>3.08</v>
-      </c>
-      <c r="N7" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="P7" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="R7" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="S7" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="T7" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="U7" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="V7" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="W7" t="n">
-        <v>2.13</v>
-      </c>
-      <c r="X7" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>2.69</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>8</v>
-      </c>
       <c r="AD7" t="n">
-        <v>2.92</v>
+        <v>3.07</v>
       </c>
       <c r="AE7" t="n">
-        <v>1.37</v>
+        <v>1.29</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.72</v>
+        <v>1.48</v>
       </c>
       <c r="AG7" t="n">
-        <v>2.2</v>
+        <v>1.85</v>
       </c>
       <c r="AH7" t="n">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="AI7" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="8">
@@ -1323,100 +1323,100 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Fujieda MYFC</t>
+          <t>Tokushima Vortis</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Jubilo Iwata</t>
+          <t>Zweigen Kanazawa</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="H8" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="I8" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="J8" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="K8" t="n">
-        <v>10</v>
+        <v>8.4</v>
       </c>
       <c r="L8" t="n">
-        <v>1.25</v>
+        <v>1.31</v>
       </c>
       <c r="M8" t="n">
-        <v>3.75</v>
+        <v>3.08</v>
       </c>
       <c r="N8" t="n">
-        <v>1.73</v>
+        <v>2</v>
       </c>
       <c r="O8" t="n">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="P8" t="n">
-        <v>1.31</v>
+        <v>1.42</v>
       </c>
       <c r="Q8" t="n">
-        <v>3.28</v>
+        <v>2.75</v>
       </c>
       <c r="R8" t="n">
-        <v>1.55</v>
+        <v>1.8</v>
       </c>
       <c r="S8" t="n">
-        <v>2.35</v>
+        <v>1.95</v>
       </c>
       <c r="T8" t="n">
-        <v>1.65</v>
+        <v>1.44</v>
       </c>
       <c r="U8" t="n">
-        <v>1.25</v>
+        <v>1.32</v>
       </c>
       <c r="V8" t="n">
-        <v>1.45</v>
+        <v>1.52</v>
       </c>
       <c r="W8" t="n">
-        <v>1.43</v>
+        <v>0.43</v>
       </c>
       <c r="X8" t="n">
-        <v>1.57</v>
+        <v>0.75</v>
       </c>
       <c r="Y8" t="n">
-        <v>1.54</v>
+        <v>1.18</v>
       </c>
       <c r="Z8" t="n">
-        <v>1.69</v>
+        <v>1.13</v>
       </c>
       <c r="AA8" t="n">
-        <v>3.23</v>
+        <v>2.31</v>
       </c>
       <c r="AB8" t="n">
-        <v>2.52</v>
+        <v>1.82</v>
       </c>
       <c r="AC8" t="n">
         <v>8</v>
       </c>
       <c r="AD8" t="n">
-        <v>1.75</v>
+        <v>2.39</v>
       </c>
       <c r="AE8" t="n">
-        <v>1.29</v>
+        <v>1.35</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.52</v>
+        <v>1.63</v>
       </c>
       <c r="AG8" t="n">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="AH8" t="n">
-        <v>2.47</v>
+        <v>2.8</v>
       </c>
       <c r="AI8" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="9">
@@ -1438,100 +1438,100 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Tokushima Vortis</t>
+          <t>Blaublitz Akita</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Zweigen Kanazawa</t>
+          <t>Ventforet Kofu</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.1</v>
+        <v>2.45</v>
       </c>
       <c r="H9" t="n">
-        <v>3.45</v>
+        <v>3.1</v>
       </c>
       <c r="I9" t="n">
-        <v>2.88</v>
+        <v>2.63</v>
       </c>
       <c r="J9" t="n">
         <v>1.03</v>
       </c>
       <c r="K9" t="n">
-        <v>8.4</v>
+        <v>8.5</v>
       </c>
       <c r="L9" t="n">
-        <v>1.31</v>
+        <v>1.52</v>
       </c>
       <c r="M9" t="n">
-        <v>3.08</v>
+        <v>2.43</v>
       </c>
       <c r="N9" t="n">
-        <v>1.78</v>
+        <v>2</v>
       </c>
       <c r="O9" t="n">
-        <v>1.92</v>
+        <v>1.75</v>
       </c>
       <c r="P9" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.75</v>
+        <v>2.65</v>
       </c>
       <c r="R9" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S9" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T9" t="n">
-        <v>1.44</v>
+        <v>1.38</v>
       </c>
       <c r="U9" t="n">
-        <v>1.32</v>
+        <v>1.28</v>
       </c>
       <c r="V9" t="n">
-        <v>1.52</v>
+        <v>1.47</v>
       </c>
       <c r="W9" t="n">
-        <v>0.43</v>
+        <v>1.67</v>
       </c>
       <c r="X9" t="n">
-        <v>0.75</v>
+        <v>1.17</v>
       </c>
       <c r="Y9" t="n">
-        <v>1.18</v>
+        <v>1.22</v>
       </c>
       <c r="Z9" t="n">
-        <v>1.13</v>
+        <v>1.28</v>
       </c>
       <c r="AA9" t="n">
-        <v>2.31</v>
+        <v>2.5</v>
       </c>
       <c r="AB9" t="n">
-        <v>1.82</v>
+        <v>1.91</v>
       </c>
       <c r="AC9" t="n">
         <v>8</v>
       </c>
       <c r="AD9" t="n">
-        <v>2.39</v>
+        <v>2.2</v>
       </c>
       <c r="AE9" t="n">
-        <v>1.35</v>
+        <v>1.21</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.63</v>
+        <v>1.42</v>
       </c>
       <c r="AG9" t="n">
-        <v>2.1</v>
+        <v>1.73</v>
       </c>
       <c r="AH9" t="n">
-        <v>2.8</v>
+        <v>2.22</v>
       </c>
       <c r="AI9" t="n">
-        <v>3.3</v>
+        <v>2.95</v>
       </c>
     </row>
     <row r="10">
@@ -1553,100 +1553,100 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>V-Varen Nagasaki</t>
+          <t>Tochigi</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Fagiano Okayama</t>
+          <t>Tokyo Verdy</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.55</v>
+        <v>3.25</v>
       </c>
       <c r="H10" t="n">
         <v>3.1</v>
       </c>
       <c r="I10" t="n">
-        <v>2.52</v>
+        <v>2.1</v>
       </c>
       <c r="J10" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="K10" t="n">
-        <v>7</v>
+        <v>7.8</v>
       </c>
       <c r="L10" t="n">
-        <v>1.37</v>
+        <v>1.5</v>
       </c>
       <c r="M10" t="n">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="N10" t="n">
-        <v>1.94</v>
+        <v>2.1</v>
       </c>
       <c r="O10" t="n">
-        <v>1.94</v>
+        <v>1.68</v>
       </c>
       <c r="P10" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="R10" t="n">
-        <v>1.83</v>
+        <v>1.89</v>
       </c>
       <c r="S10" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="T10" t="n">
-        <v>1.43</v>
+        <v>1.62</v>
       </c>
       <c r="U10" t="n">
-        <v>1.39</v>
+        <v>1.3</v>
       </c>
       <c r="V10" t="n">
-        <v>1.48</v>
+        <v>1.25</v>
       </c>
       <c r="W10" t="n">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="X10" t="n">
-        <v>1.57</v>
+        <v>1.71</v>
       </c>
       <c r="Y10" t="n">
-        <v>1.37</v>
+        <v>1.32</v>
       </c>
       <c r="Z10" t="n">
-        <v>1.34</v>
+        <v>1.26</v>
       </c>
       <c r="AA10" t="n">
-        <v>2.71</v>
+        <v>2.58</v>
       </c>
       <c r="AB10" t="n">
         <v>2.2</v>
       </c>
       <c r="AC10" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AD10" t="n">
         <v>1.91</v>
       </c>
       <c r="AE10" t="n">
-        <v>1.29</v>
+        <v>1.35</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.52</v>
+        <v>1.63</v>
       </c>
       <c r="AG10" t="n">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="AH10" t="n">
-        <v>2.47</v>
+        <v>2.8</v>
       </c>
       <c r="AI10" t="n">
-        <v>0</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="11">
@@ -1668,100 +1668,100 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Roasso Kumamoto</t>
+          <t>V-Varen Nagasaki</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Vegalta Sendai</t>
+          <t>Fagiano Okayama</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.53</v>
+        <v>2</v>
       </c>
       <c r="H11" t="n">
-        <v>3.45</v>
+        <v>3.3</v>
       </c>
       <c r="I11" t="n">
-        <v>2.33</v>
+        <v>3.3</v>
       </c>
       <c r="J11" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="K11" t="n">
-        <v>8.5</v>
+        <v>7</v>
       </c>
       <c r="L11" t="n">
-        <v>1.22</v>
+        <v>1.37</v>
       </c>
       <c r="M11" t="n">
-        <v>3.7</v>
+        <v>2.8</v>
       </c>
       <c r="N11" t="n">
-        <v>1.77</v>
+        <v>1.87</v>
       </c>
       <c r="O11" t="n">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="P11" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="Q11" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="R11" t="n">
-        <v>1.67</v>
+        <v>1.83</v>
       </c>
       <c r="S11" t="n">
-        <v>2.1</v>
+        <v>1.83</v>
       </c>
       <c r="T11" t="n">
-        <v>1.51</v>
+        <v>1.43</v>
       </c>
       <c r="U11" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="V11" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="W11" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="X11" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AE11" t="n">
         <v>1.29</v>
       </c>
-      <c r="V11" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="W11" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="X11" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>3.18</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>2.33</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>1.38</v>
-      </c>
       <c r="AF11" t="n">
-        <v>1.67</v>
+        <v>1.52</v>
       </c>
       <c r="AG11" t="n">
-        <v>2.17</v>
+        <v>1.9</v>
       </c>
       <c r="AH11" t="n">
-        <v>2.9</v>
+        <v>2.47</v>
       </c>
       <c r="AI11" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="12">
@@ -1783,100 +1783,100 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Blaublitz Akita</t>
+          <t>Roasso Kumamoto</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Ventforet Kofu</t>
+          <t>Vegalta Sendai</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.6</v>
+        <v>2.05</v>
       </c>
       <c r="H12" t="n">
-        <v>2.91</v>
+        <v>3.3</v>
       </c>
       <c r="I12" t="n">
-        <v>2.6</v>
+        <v>3.25</v>
       </c>
       <c r="J12" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K12" t="n">
         <v>8.5</v>
       </c>
       <c r="L12" t="n">
-        <v>1.52</v>
+        <v>1.22</v>
       </c>
       <c r="M12" t="n">
-        <v>2.44</v>
+        <v>3.7</v>
       </c>
       <c r="N12" t="n">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="O12" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="P12" t="n">
-        <v>1.43</v>
+        <v>1.36</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.65</v>
+        <v>3</v>
       </c>
       <c r="R12" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="S12" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="T12" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="U12" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="V12" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="W12" t="n">
         <v>1.75</v>
       </c>
-      <c r="S12" t="n">
-        <v>2</v>
-      </c>
-      <c r="T12" t="n">
+      <c r="X12" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AE12" t="n">
         <v>1.38</v>
       </c>
-      <c r="U12" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="V12" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="W12" t="n">
+      <c r="AF12" t="n">
         <v>1.67</v>
       </c>
-      <c r="X12" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>1.42</v>
-      </c>
       <c r="AG12" t="n">
-        <v>1.73</v>
+        <v>2.17</v>
       </c>
       <c r="AH12" t="n">
-        <v>2.22</v>
+        <v>2.9</v>
       </c>
       <c r="AI12" t="n">
-        <v>2.95</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="13">
@@ -1928,10 +1928,10 @@
         <v>4.03</v>
       </c>
       <c r="N13" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="O13" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="P13" t="n">
         <v>1.33</v>
@@ -2013,12 +2013,12 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Giresunspor</t>
+          <t>Beşiktaş</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Hatayspor</t>
+          <t>Gazişehir Gaziantep</t>
         </is>
       </c>
       <c r="G14" t="n">
@@ -2070,19 +2070,19 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>1.07</v>
+        <v>2.44</v>
       </c>
       <c r="X14" t="n">
-        <v>0.44</v>
+        <v>0.8</v>
       </c>
       <c r="Y14" t="n">
-        <v>1.84</v>
+        <v>2.25</v>
       </c>
       <c r="Z14" t="n">
-        <v>1.37</v>
+        <v>1.42</v>
       </c>
       <c r="AA14" t="n">
-        <v>3.21</v>
+        <v>3.67</v>
       </c>
       <c r="AB14" t="n">
         <v>0</v>
@@ -2128,12 +2128,12 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Beşiktaş</t>
+          <t>Giresunspor</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Gazişehir Gaziantep</t>
+          <t>Hatayspor</t>
         </is>
       </c>
       <c r="G15" t="n">
@@ -2185,19 +2185,19 @@
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>2.44</v>
+        <v>1.07</v>
       </c>
       <c r="X15" t="n">
-        <v>0.8</v>
+        <v>0.44</v>
       </c>
       <c r="Y15" t="n">
-        <v>2.25</v>
+        <v>1.84</v>
       </c>
       <c r="Z15" t="n">
-        <v>1.42</v>
+        <v>1.37</v>
       </c>
       <c r="AA15" t="n">
-        <v>3.67</v>
+        <v>3.21</v>
       </c>
       <c r="AB15" t="n">
         <v>0</v>
@@ -2227,7 +2227,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Turkey Süper Lig</t>
+          <t>Egypt Egyptian Premier League</t>
         </is>
       </c>
       <c r="B16" s="2" t="n">
@@ -2239,110 +2239,110 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Fatih Karagümrük</t>
+          <t>National Bank of Egypt</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Adana Demirspor</t>
+          <t>Ismaily SC</t>
         </is>
       </c>
       <c r="G16" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="H16" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="I16" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="K16" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="L16" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="M16" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="N16" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="P16" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="R16" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="S16" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="T16" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="U16" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="V16" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="W16" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="X16" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AH16" t="n">
         <v>2.49</v>
       </c>
-      <c r="H16" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="I16" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="K16" t="n">
-        <v>26</v>
-      </c>
-      <c r="L16" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="M16" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="N16" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="O16" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="P16" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>4</v>
-      </c>
-      <c r="R16" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="S16" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="T16" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="U16" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="V16" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="W16" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="X16" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>3.23</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>2.37</v>
-      </c>
       <c r="AI16" t="n">
-        <v>3.3</v>
+        <v>3.42</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Egypt Egyptian Premier League</t>
+          <t>Turkey Süper Lig</t>
         </is>
       </c>
       <c r="B17" s="2" t="n">
@@ -2354,104 +2354,104 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>National Bank of Egypt</t>
+          <t>Ankaragücü</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Ismaily SC</t>
+          <t>Antalyaspor</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.27</v>
+        <v>2.3</v>
       </c>
       <c r="H17" t="n">
-        <v>2.83</v>
+        <v>3.5</v>
       </c>
       <c r="I17" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="J17" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="K17" t="n">
+        <v>13</v>
+      </c>
+      <c r="L17" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="M17" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="N17" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="P17" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S17" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="T17" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="U17" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="V17" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="W17" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X17" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AA17" t="n">
         <v>2.93</v>
       </c>
-      <c r="J17" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="K17" t="n">
-        <v>6.45</v>
-      </c>
-      <c r="L17" t="n">
+      <c r="AB17" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AF17" t="n">
         <v>1.52</v>
       </c>
-      <c r="M17" t="n">
-        <v>2.53</v>
-      </c>
-      <c r="N17" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="P17" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="R17" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="S17" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="T17" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="U17" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="V17" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="W17" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="X17" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>2.73</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>0</v>
-      </c>
       <c r="AG17" t="n">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="AH17" t="n">
-        <v>0</v>
+        <v>2.47</v>
       </c>
       <c r="AI17" t="n">
-        <v>0</v>
+        <v>3.25</v>
       </c>
     </row>
     <row r="18">
@@ -2473,106 +2473,106 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Ankaragücü</t>
+          <t>Fatih Karagümrük</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Antalyaspor</t>
+          <t>Adana Demirspor</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2.3</v>
+        <v>2.9</v>
       </c>
       <c r="H18" t="n">
-        <v>3.35</v>
+        <v>3.9</v>
       </c>
       <c r="I18" t="n">
-        <v>2.79</v>
+        <v>2.1</v>
       </c>
       <c r="J18" t="n">
-        <v>1.05</v>
+        <v>1.01</v>
       </c>
       <c r="K18" t="n">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="L18" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="M18" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="N18" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="O18" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="P18" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>4</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="S18" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="T18" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="U18" t="n">
         <v>1.25</v>
       </c>
-      <c r="M18" t="n">
-        <v>3.82</v>
-      </c>
-      <c r="N18" t="n">
+      <c r="V18" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="W18" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X18" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="Z18" t="n">
         <v>1.75</v>
       </c>
-      <c r="O18" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="P18" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="R18" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="S18" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="T18" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="U18" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="V18" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="W18" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="X18" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>1.27</v>
-      </c>
       <c r="AA18" t="n">
-        <v>2.93</v>
+        <v>3.23</v>
       </c>
       <c r="AB18" t="n">
-        <v>1.73</v>
+        <v>2.4</v>
       </c>
       <c r="AC18" t="n">
         <v>8</v>
       </c>
       <c r="AD18" t="n">
-        <v>2.38</v>
+        <v>1.73</v>
       </c>
       <c r="AE18" t="n">
-        <v>1.29</v>
+        <v>1.23</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.52</v>
+        <v>1.49</v>
       </c>
       <c r="AG18" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="AH18" t="n">
-        <v>2.47</v>
+        <v>2.37</v>
       </c>
       <c r="AI18" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Europe UEFA Champions League</t>
+          <t>England Championship</t>
         </is>
       </c>
       <c r="B19" s="2" t="n">
@@ -2588,106 +2588,106 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Manchester City</t>
+          <t>Middlesbrough</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Real Madrid</t>
+          <t>Coventry City</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.57</v>
+        <v>2</v>
       </c>
       <c r="H19" t="n">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="I19" t="n">
-        <v>5</v>
+        <v>3.8</v>
       </c>
       <c r="J19" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K19" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="L19" t="n">
-        <v>1.19</v>
+        <v>1.27</v>
       </c>
       <c r="M19" t="n">
-        <v>5</v>
+        <v>3.88</v>
       </c>
       <c r="N19" t="n">
-        <v>1.57</v>
+        <v>1.85</v>
       </c>
       <c r="O19" t="n">
-        <v>2.25</v>
+        <v>1.96</v>
       </c>
       <c r="P19" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="Q19" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="S19" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="T19" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="U19" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="V19" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="W19" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="X19" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD19" t="n">
         <v>3.5</v>
       </c>
-      <c r="R19" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="S19" t="n">
+      <c r="AE19" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AH19" t="n">
         <v>2.2</v>
       </c>
-      <c r="T19" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="U19" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="V19" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="W19" t="n">
-        <v>2.09</v>
-      </c>
-      <c r="X19" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="Y19" t="n">
+      <c r="AI19" t="n">
         <v>2.7</v>
-      </c>
-      <c r="Z19" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>4.28</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>2.23</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>2.85</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>England Championship</t>
+          <t>Europe UEFA Champions League</t>
         </is>
       </c>
       <c r="B20" s="2" t="n">
@@ -2703,100 +2703,100 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Middlesbrough</t>
+          <t>Manchester City</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Coventry City</t>
+          <t>Real Madrid</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2</v>
+        <v>1.57</v>
       </c>
       <c r="H20" t="n">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="I20" t="n">
-        <v>3.8</v>
+        <v>5</v>
       </c>
       <c r="J20" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K20" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="L20" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="M20" t="n">
-        <v>3.88</v>
+        <v>5</v>
       </c>
       <c r="N20" t="n">
-        <v>1.86</v>
+        <v>1.68</v>
       </c>
       <c r="O20" t="n">
-        <v>1.92</v>
+        <v>2.25</v>
       </c>
       <c r="P20" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S20" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="T20" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="U20" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="V20" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="W20" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="X20" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>4.28</v>
+      </c>
+      <c r="AB20" t="n">
         <v>1.4</v>
       </c>
-      <c r="Q20" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="R20" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="S20" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="T20" t="n">
+      <c r="AC20" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AE20" t="n">
         <v>1.23</v>
       </c>
-      <c r="U20" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="V20" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="W20" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="X20" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>1.21</v>
-      </c>
       <c r="AF20" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="AG20" t="n">
-        <v>1.71</v>
+        <v>1.77</v>
       </c>
       <c r="AH20" t="n">
-        <v>2.2</v>
+        <v>2.23</v>
       </c>
       <c r="AI20" t="n">
-        <v>2.7</v>
+        <v>2.85</v>
       </c>
     </row>
     <row r="21">
@@ -2827,13 +2827,13 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="H21" t="n">
-        <v>3.04</v>
+        <v>3.3</v>
       </c>
       <c r="I21" t="n">
-        <v>3.31</v>
+        <v>3.6</v>
       </c>
       <c r="J21" t="n">
         <v>1.05</v>
@@ -2848,10 +2848,10 @@
         <v>3.25</v>
       </c>
       <c r="N21" t="n">
-        <v>1.86</v>
+        <v>2.06</v>
       </c>
       <c r="O21" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="P21" t="n">
         <v>1.42</v>
@@ -2942,13 +2942,13 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="H22" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I22" t="n">
-        <v>1.83</v>
+        <v>1.7</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2963,7 +2963,7 @@
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="O22" t="n">
         <v>1.85</v>
@@ -3057,13 +3057,13 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2.53</v>
+        <v>2.5</v>
       </c>
       <c r="H23" t="n">
-        <v>3.36</v>
+        <v>3.1</v>
       </c>
       <c r="I23" t="n">
-        <v>2.54</v>
+        <v>2.5</v>
       </c>
       <c r="J23" t="n">
         <v>1.05</v>
@@ -3078,7 +3078,7 @@
         <v>3.5</v>
       </c>
       <c r="N23" t="n">
-        <v>1.87</v>
+        <v>1.8</v>
       </c>
       <c r="O23" t="n">
         <v>1.91</v>
@@ -3163,100 +3163,100 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Toronto</t>
+          <t>Columbus Crew</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>New York RB</t>
+          <t>LA Galaxy</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2.05</v>
+        <v>1.67</v>
       </c>
       <c r="H24" t="n">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="I24" t="n">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="J24" t="n">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="K24" t="n">
-        <v>10.25</v>
+        <v>13</v>
       </c>
       <c r="L24" t="n">
-        <v>1.32</v>
+        <v>1.25</v>
       </c>
       <c r="M24" t="n">
-        <v>3.12</v>
+        <v>4</v>
       </c>
       <c r="N24" t="n">
-        <v>2.05</v>
+        <v>1.78</v>
       </c>
       <c r="O24" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="P24" t="n">
-        <v>1.42</v>
+        <v>1.35</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.65</v>
+        <v>3.2</v>
       </c>
       <c r="R24" t="n">
-        <v>1.85</v>
+        <v>1.72</v>
       </c>
       <c r="S24" t="n">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="T24" t="n">
-        <v>1.32</v>
+        <v>1.22</v>
       </c>
       <c r="U24" t="n">
-        <v>1.32</v>
+        <v>1.22</v>
       </c>
       <c r="V24" t="n">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="W24" t="n">
-        <v>1.5</v>
+        <v>1.83</v>
       </c>
       <c r="X24" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="Y24" t="n">
-        <v>1.41</v>
+        <v>1.99</v>
       </c>
       <c r="Z24" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AA24" t="n">
-        <v>2.91</v>
+        <v>3.19</v>
       </c>
       <c r="AB24" t="n">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="AC24" t="n">
-        <v>0</v>
+        <v>9.1</v>
       </c>
       <c r="AD24" t="n">
-        <v>0</v>
+        <v>2.47</v>
       </c>
       <c r="AE24" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="AF24" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="AG24" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="AH24" t="n">
-        <v>0</v>
+        <v>2.35</v>
       </c>
       <c r="AI24" t="n">
-        <v>0</v>
+        <v>3.25</v>
       </c>
     </row>
     <row r="25">
@@ -3278,100 +3278,100 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Atlanta United FC</t>
+          <t>Orlando City</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Colorado Rapids</t>
+          <t>New York City</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1.53</v>
+        <v>2.4</v>
       </c>
       <c r="H25" t="n">
-        <v>4.33</v>
+        <v>3.4</v>
       </c>
       <c r="I25" t="n">
-        <v>5.5</v>
+        <v>2.75</v>
       </c>
       <c r="J25" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K25" t="n">
-        <v>15</v>
+        <v>8.4</v>
       </c>
       <c r="L25" t="n">
-        <v>1.22</v>
+        <v>1.31</v>
       </c>
       <c r="M25" t="n">
-        <v>4.2</v>
+        <v>3.08</v>
       </c>
       <c r="N25" t="n">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="O25" t="n">
-        <v>2.1</v>
+        <v>1.87</v>
       </c>
       <c r="P25" t="n">
-        <v>1.31</v>
+        <v>1.4</v>
       </c>
       <c r="Q25" t="n">
-        <v>3.28</v>
+        <v>3</v>
       </c>
       <c r="R25" t="n">
-        <v>1.68</v>
+        <v>1.85</v>
       </c>
       <c r="S25" t="n">
-        <v>2.13</v>
+        <v>1.9</v>
       </c>
       <c r="T25" t="n">
-        <v>1.19</v>
+        <v>1.35</v>
       </c>
       <c r="U25" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="V25" t="n">
-        <v>2.17</v>
+        <v>1.72</v>
       </c>
       <c r="W25" t="n">
-        <v>2.17</v>
+        <v>1.17</v>
       </c>
       <c r="X25" t="n">
-        <v>1.29</v>
+        <v>0.29</v>
       </c>
       <c r="Y25" t="n">
-        <v>1.63</v>
+        <v>1.42</v>
       </c>
       <c r="Z25" t="n">
-        <v>1.21</v>
+        <v>1.03</v>
       </c>
       <c r="AA25" t="n">
-        <v>2.84</v>
+        <v>2.45</v>
       </c>
       <c r="AB25" t="n">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="AC25" t="n">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD25" t="n">
-        <v>0</v>
+        <v>2.49</v>
       </c>
       <c r="AE25" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="AF25" t="n">
-        <v>0</v>
+        <v>1.66</v>
       </c>
       <c r="AG25" t="n">
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="AH25" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AI25" t="n">
-        <v>0</v>
+        <v>3.64</v>
       </c>
     </row>
     <row r="26">
@@ -3393,100 +3393,100 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Charlotte</t>
+          <t>FC Cincinnati</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Chicago Fire</t>
+          <t>Montreal Impact</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2.15</v>
+        <v>1.47</v>
       </c>
       <c r="H26" t="n">
-        <v>3.6</v>
+        <v>4.33</v>
       </c>
       <c r="I26" t="n">
-        <v>3.1</v>
+        <v>6</v>
       </c>
       <c r="J26" t="n">
         <v>1.03</v>
       </c>
       <c r="K26" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L26" t="n">
         <v>1.22</v>
       </c>
       <c r="M26" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="N26" t="n">
-        <v>1.81</v>
+        <v>1.78</v>
       </c>
       <c r="O26" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="P26" t="n">
         <v>1.33</v>
       </c>
       <c r="Q26" t="n">
-        <v>3.16</v>
+        <v>3.3</v>
       </c>
       <c r="R26" t="n">
-        <v>1.62</v>
+        <v>1.75</v>
       </c>
       <c r="S26" t="n">
-        <v>2.23</v>
+        <v>2</v>
       </c>
       <c r="T26" t="n">
-        <v>1.31</v>
+        <v>1.17</v>
       </c>
       <c r="U26" t="n">
-        <v>1.28</v>
+        <v>1.2</v>
       </c>
       <c r="V26" t="n">
-        <v>1.78</v>
+        <v>2.3</v>
       </c>
       <c r="W26" t="n">
-        <v>1.33</v>
+        <v>3</v>
       </c>
       <c r="X26" t="n">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="Y26" t="n">
-        <v>1.31</v>
+        <v>1.27</v>
       </c>
       <c r="Z26" t="n">
-        <v>1.31</v>
+        <v>1.08</v>
       </c>
       <c r="AA26" t="n">
-        <v>2.62</v>
+        <v>2.35</v>
       </c>
       <c r="AB26" t="n">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="AC26" t="n">
-        <v>0</v>
+        <v>8.9</v>
       </c>
       <c r="AD26" t="n">
-        <v>0</v>
+        <v>2.59</v>
       </c>
       <c r="AE26" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="AF26" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="AG26" t="n">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="AH26" t="n">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="AI26" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27">
@@ -3508,34 +3508,34 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>FC Cincinnati</t>
+          <t>Atlanta United FC</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Montreal Impact</t>
+          <t>Colorado Rapids</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1.47</v>
+        <v>1.53</v>
       </c>
       <c r="H27" t="n">
         <v>4.33</v>
       </c>
       <c r="I27" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="J27" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="K27" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L27" t="n">
         <v>1.22</v>
       </c>
       <c r="M27" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="N27" t="n">
         <v>1.75</v>
@@ -3544,64 +3544,64 @@
         <v>2.05</v>
       </c>
       <c r="P27" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="R27" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="S27" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="T27" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="U27" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="V27" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="W27" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="X27" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="AB27" t="n">
         <v>1.33</v>
       </c>
-      <c r="Q27" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="R27" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="S27" t="n">
-        <v>2</v>
-      </c>
-      <c r="T27" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="U27" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="V27" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="W27" t="n">
-        <v>3</v>
-      </c>
-      <c r="X27" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="Y27" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="Z27" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="AA27" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="AB27" t="n">
-        <v>0</v>
-      </c>
       <c r="AC27" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AD27" t="n">
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="AE27" t="n">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="AF27" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="AG27" t="n">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="AH27" t="n">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="AI27" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="28">
@@ -3623,22 +3623,22 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Columbus Crew</t>
+          <t>Philadelphia Union</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>LA Galaxy</t>
+          <t>DC United</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1.72</v>
+        <v>1.6</v>
       </c>
       <c r="H28" t="n">
         <v>4</v>
       </c>
       <c r="I28" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="J28" t="n">
         <v>1.03</v>
@@ -3650,7 +3650,7 @@
         <v>1.25</v>
       </c>
       <c r="M28" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="N28" t="n">
         <v>1.78</v>
@@ -3659,64 +3659,64 @@
         <v>2</v>
       </c>
       <c r="P28" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="Q28" t="n">
-        <v>3.2</v>
+        <v>2.96</v>
       </c>
       <c r="R28" t="n">
-        <v>1.72</v>
+        <v>1.87</v>
       </c>
       <c r="S28" t="n">
-        <v>2.1</v>
+        <v>1.89</v>
       </c>
       <c r="T28" t="n">
-        <v>1.22</v>
+        <v>1.15</v>
       </c>
       <c r="U28" t="n">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
       <c r="V28" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="W28" t="n">
         <v>2</v>
       </c>
-      <c r="W28" t="n">
-        <v>1.83</v>
-      </c>
       <c r="X28" t="n">
-        <v>0.4</v>
+        <v>1.17</v>
       </c>
       <c r="Y28" t="n">
-        <v>1.99</v>
+        <v>1.67</v>
       </c>
       <c r="Z28" t="n">
-        <v>1.2</v>
+        <v>1.34</v>
       </c>
       <c r="AA28" t="n">
-        <v>3.19</v>
+        <v>3.01</v>
       </c>
       <c r="AB28" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AC28" t="n">
-        <v>0</v>
+        <v>8.9</v>
       </c>
       <c r="AD28" t="n">
-        <v>0</v>
+        <v>3.18</v>
       </c>
       <c r="AE28" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="AF28" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="AG28" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="AH28" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="AI28" t="n">
-        <v>0</v>
+        <v>4.14</v>
       </c>
     </row>
     <row r="29">
@@ -3738,100 +3738,100 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Orlando City</t>
+          <t>Toronto</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>New York City</t>
+          <t>New York RB</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>2.4</v>
+        <v>2.05</v>
       </c>
       <c r="H29" t="n">
         <v>3.4</v>
       </c>
       <c r="I29" t="n">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="J29" t="n">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="K29" t="n">
-        <v>8.4</v>
+        <v>10.25</v>
       </c>
       <c r="L29" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="M29" t="n">
-        <v>3.08</v>
+        <v>3.12</v>
       </c>
       <c r="N29" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="O29" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="P29" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="Q29" t="n">
-        <v>3</v>
+        <v>2.65</v>
       </c>
       <c r="R29" t="n">
         <v>1.85</v>
       </c>
       <c r="S29" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T29" t="n">
-        <v>1.35</v>
+        <v>1.32</v>
       </c>
       <c r="U29" t="n">
-        <v>1.25</v>
+        <v>1.32</v>
       </c>
       <c r="V29" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="W29" t="n">
-        <v>1.17</v>
+        <v>1.5</v>
       </c>
       <c r="X29" t="n">
-        <v>0.29</v>
+        <v>0.5</v>
       </c>
       <c r="Y29" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="Z29" t="n">
-        <v>1.03</v>
+        <v>1.5</v>
       </c>
       <c r="AA29" t="n">
-        <v>2.45</v>
+        <v>2.91</v>
       </c>
       <c r="AB29" t="n">
-        <v>0</v>
+        <v>2.14</v>
       </c>
       <c r="AC29" t="n">
-        <v>0</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="AD29" t="n">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="AE29" t="n">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="AF29" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="AG29" t="n">
-        <v>0</v>
+        <v>2.37</v>
       </c>
       <c r="AH29" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="AI29" t="n">
-        <v>0</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="30">
@@ -3853,106 +3853,106 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Philadelphia Union</t>
+          <t>Charlotte</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>DC United</t>
+          <t>Chicago Fire</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1.6</v>
+        <v>2.15</v>
       </c>
       <c r="H30" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="I30" t="n">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="J30" t="n">
         <v>1.03</v>
       </c>
       <c r="K30" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L30" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="M30" t="n">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="N30" t="n">
-        <v>1.91</v>
+        <v>1.72</v>
       </c>
       <c r="O30" t="n">
-        <v>1.92</v>
+        <v>2.1</v>
       </c>
       <c r="P30" t="n">
-        <v>1.37</v>
+        <v>1.33</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.96</v>
+        <v>3.16</v>
       </c>
       <c r="R30" t="n">
-        <v>1.87</v>
+        <v>1.62</v>
       </c>
       <c r="S30" t="n">
-        <v>1.89</v>
+        <v>2.23</v>
       </c>
       <c r="T30" t="n">
-        <v>1.15</v>
+        <v>1.31</v>
       </c>
       <c r="U30" t="n">
-        <v>1.24</v>
+        <v>1.28</v>
       </c>
       <c r="V30" t="n">
-        <v>2.29</v>
+        <v>1.78</v>
       </c>
       <c r="W30" t="n">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="X30" t="n">
-        <v>1.17</v>
+        <v>0.75</v>
       </c>
       <c r="Y30" t="n">
-        <v>1.67</v>
+        <v>1.31</v>
       </c>
       <c r="Z30" t="n">
-        <v>1.34</v>
+        <v>1.31</v>
       </c>
       <c r="AA30" t="n">
-        <v>3.01</v>
+        <v>2.62</v>
       </c>
       <c r="AB30" t="n">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="AC30" t="n">
-        <v>0</v>
+        <v>8.9</v>
       </c>
       <c r="AD30" t="n">
-        <v>0</v>
+        <v>2.67</v>
       </c>
       <c r="AE30" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="AF30" t="n">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="AG30" t="n">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="AH30" t="n">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="AI30" t="n">
-        <v>0</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Peru Primera División</t>
+          <t>Colombia Categoria Primera A</t>
         </is>
       </c>
       <c r="B31" s="2" t="n">
@@ -3964,104 +3964,2289 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Deportivo Binacional</t>
+          <t>Deportes Tolima</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Sporting Cristal</t>
+          <t>Atlético Nacional</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2.17</v>
+        <v>2.33</v>
       </c>
       <c r="H31" t="n">
-        <v>3.11</v>
+        <v>3.15</v>
       </c>
       <c r="I31" t="n">
-        <v>2.74</v>
+        <v>3.1</v>
       </c>
       <c r="J31" t="n">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="K31" t="n">
-        <v>15.25</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="O31" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="P31" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="R31" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="S31" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="T31" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="U31" t="n">
         <v>1.22</v>
       </c>
-      <c r="M31" t="n">
-        <v>3.74</v>
-      </c>
-      <c r="N31" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="O31" t="n">
-        <v>2</v>
-      </c>
-      <c r="P31" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="R31" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="S31" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="T31" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="U31" t="n">
-        <v>1.24</v>
-      </c>
       <c r="V31" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="W31" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="X31" t="n">
         <v>1.67</v>
       </c>
-      <c r="X31" t="n">
-        <v>1.17</v>
-      </c>
       <c r="Y31" t="n">
-        <v>1.76</v>
+        <v>1.9</v>
       </c>
       <c r="Z31" t="n">
         <v>1.47</v>
       </c>
       <c r="AA31" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Colombia Categoria Primera A</t>
+        </is>
+      </c>
+      <c r="B32" s="2" t="n">
+        <v>45063</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>21:00:00</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>20</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Once Caldas</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Santa Fe</t>
+        </is>
+      </c>
+      <c r="G32" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="H32" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I32" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="O32" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="P32" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="R32" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="S32" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="T32" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="U32" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="V32" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="W32" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="X32" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Colombia Categoria Primera A</t>
+        </is>
+      </c>
+      <c r="B33" s="2" t="n">
+        <v>45063</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>21:00:00</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>20</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Deportivo Pereira</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Alianza Petrolera</t>
+        </is>
+      </c>
+      <c r="G33" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="H33" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="I33" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>2</v>
+      </c>
+      <c r="O33" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="P33" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="R33" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="S33" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="T33" t="n">
+        <v>0</v>
+      </c>
+      <c r="U33" t="n">
+        <v>0</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X33" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AI33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Peru Primera División</t>
+        </is>
+      </c>
+      <c r="B34" s="2" t="n">
+        <v>45063</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>21:00:00</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>6</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Deportivo Binacional</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Sporting Cristal</t>
+        </is>
+      </c>
+      <c r="G34" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="H34" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="I34" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="J34" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="K34" t="n">
+        <v>15.25</v>
+      </c>
+      <c r="L34" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="M34" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="N34" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="O34" t="n">
+        <v>2</v>
+      </c>
+      <c r="P34" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="R34" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="S34" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="T34" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U34" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="V34" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="W34" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="X34" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AA34" t="n">
         <v>3.23</v>
       </c>
-      <c r="AB31" t="n">
+      <c r="AB34" t="n">
         <v>1.91</v>
       </c>
-      <c r="AC31" t="n">
+      <c r="AC34" t="n">
         <v>8.5</v>
       </c>
-      <c r="AD31" t="n">
+      <c r="AD34" t="n">
         <v>2.1</v>
       </c>
-      <c r="AE31" t="n">
+      <c r="AE34" t="n">
         <v>1.15</v>
       </c>
-      <c r="AF31" t="n">
+      <c r="AF34" t="n">
         <v>1.29</v>
       </c>
-      <c r="AG31" t="n">
+      <c r="AG34" t="n">
         <v>1.51</v>
       </c>
-      <c r="AH31" t="n">
+      <c r="AH34" t="n">
         <v>1.85</v>
       </c>
-      <c r="AI31" t="n">
+      <c r="AI34" t="n">
         <v>2.37</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Colombia Categoria Primera A</t>
+        </is>
+      </c>
+      <c r="B35" s="2" t="n">
+        <v>45063</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>21:00:00</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>20</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Deportivo Pasto</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Envigado</t>
+        </is>
+      </c>
+      <c r="G35" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="H35" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I35" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="J35" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="K35" t="n">
+        <v>11</v>
+      </c>
+      <c r="L35" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="M35" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="N35" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="O35" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="P35" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R35" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S35" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="T35" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="U35" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="V35" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="W35" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="X35" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AH35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI35" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Colombia Categoria Primera A</t>
+        </is>
+      </c>
+      <c r="B36" s="2" t="n">
+        <v>45063</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>21:00:00</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>20</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Independiente Medellín</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Unión Magdalena</t>
+        </is>
+      </c>
+      <c r="G36" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="H36" t="n">
+        <v>4</v>
+      </c>
+      <c r="I36" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="N36" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="O36" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="P36" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>3</v>
+      </c>
+      <c r="R36" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S36" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="T36" t="n">
+        <v>0</v>
+      </c>
+      <c r="U36" t="n">
+        <v>0</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="X36" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AG36" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AH36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI36" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Colombia Categoria Primera A</t>
+        </is>
+      </c>
+      <c r="B37" s="2" t="n">
+        <v>45063</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>21:00:00</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>20</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Millonarios</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>La Equidad</t>
+        </is>
+      </c>
+      <c r="G37" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="H37" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="I37" t="n">
+        <v>5</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="N37" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="O37" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="P37" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="R37" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="S37" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="T37" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="U37" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="V37" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="W37" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="X37" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AG37" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AH37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI37" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Colombia Categoria Primera A</t>
+        </is>
+      </c>
+      <c r="B38" s="2" t="n">
+        <v>45063</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>21:00:00</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>20</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Atlético Huila</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Junior</t>
+        </is>
+      </c>
+      <c r="G38" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="H38" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I38" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="O38" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="P38" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="R38" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="S38" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="T38" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="U38" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="V38" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="W38" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X38" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF38" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AG38" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AH38" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AI38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Colombia Categoria Primera A</t>
+        </is>
+      </c>
+      <c r="B39" s="2" t="n">
+        <v>45063</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>21:00:00</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>20</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Atlético Bucaramanga</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>América de Cali</t>
+        </is>
+      </c>
+      <c r="G39" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="H39" t="n">
+        <v>3</v>
+      </c>
+      <c r="I39" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="O39" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="P39" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="R39" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="S39" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="T39" t="n">
+        <v>0</v>
+      </c>
+      <c r="U39" t="n">
+        <v>0</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="X39" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="AB39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF39" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AG39" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH39" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AI39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Colombia Categoria Primera A</t>
+        </is>
+      </c>
+      <c r="B40" s="2" t="n">
+        <v>45063</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>21:00:00</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>20</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Deportivo Cali</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Boyacá Chicó</t>
+        </is>
+      </c>
+      <c r="G40" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="H40" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="I40" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="J40" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="K40" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="L40" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="O40" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="P40" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R40" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="S40" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="T40" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="U40" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="V40" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="W40" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="X40" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="AB40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE40" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AF40" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AG40" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AH40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI40" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Colombia Categoria Primera A</t>
+        </is>
+      </c>
+      <c r="B41" s="2" t="n">
+        <v>45063</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>21:00:00</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>20</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Rionegro Águilas</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Jaguares de Córdoba</t>
+        </is>
+      </c>
+      <c r="G41" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="H41" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="I41" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="O41" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="P41" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="R41" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S41" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="T41" t="n">
+        <v>0</v>
+      </c>
+      <c r="U41" t="n">
+        <v>0</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="X41" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="AB41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE41" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AF41" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AG41" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AH41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI41" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>USA MLS</t>
+        </is>
+      </c>
+      <c r="B42" s="2" t="n">
+        <v>45063</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>21:30:00</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>0</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Nashville SC</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Inter Miami</t>
+        </is>
+      </c>
+      <c r="G42" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="H42" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="I42" t="n">
+        <v>5</v>
+      </c>
+      <c r="J42" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="K42" t="n">
+        <v>13</v>
+      </c>
+      <c r="L42" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="M42" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="N42" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="O42" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="P42" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="R42" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="S42" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="T42" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="U42" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="V42" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="W42" t="n">
+        <v>2</v>
+      </c>
+      <c r="X42" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="Z42" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AA42" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="AB42" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AC42" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD42" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE42" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AF42" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AG42" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AH42" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AI42" t="n">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>USA MLS</t>
+        </is>
+      </c>
+      <c r="B43" s="2" t="n">
+        <v>45063</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>21:30:00</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>0</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Minnesota United</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Houston Dynamo</t>
+        </is>
+      </c>
+      <c r="G43" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="H43" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I43" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="J43" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="K43" t="n">
+        <v>13</v>
+      </c>
+      <c r="L43" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="M43" t="n">
+        <v>4</v>
+      </c>
+      <c r="N43" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="O43" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="P43" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="R43" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="S43" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="T43" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="U43" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="V43" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="W43" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="X43" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="Z43" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AA43" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AB43" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AC43" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AD43" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE43" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AF43" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AG43" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AH43" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AI43" t="n">
+        <v>2.47</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>USA MLS</t>
+        </is>
+      </c>
+      <c r="B44" s="2" t="n">
+        <v>45063</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>21:30:00</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>FC Dallas</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Vancouver Whitecaps</t>
+        </is>
+      </c>
+      <c r="G44" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="H44" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="I44" t="n">
+        <v>5</v>
+      </c>
+      <c r="J44" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="K44" t="n">
+        <v>11</v>
+      </c>
+      <c r="L44" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="M44" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="N44" t="n">
+        <v>2</v>
+      </c>
+      <c r="O44" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="P44" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="R44" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S44" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="T44" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="U44" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="V44" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="W44" t="n">
+        <v>2</v>
+      </c>
+      <c r="X44" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="Z44" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AA44" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="AB44" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AC44" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AD44" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AE44" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AF44" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AG44" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AH44" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AI44" t="n">
+        <v>3.25</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Paraguay Division Profesional</t>
+        </is>
+      </c>
+      <c r="B45" s="2" t="n">
+        <v>45063</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>21:30:00</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>18</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Tacuary</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Guaraní</t>
+        </is>
+      </c>
+      <c r="G45" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="H45" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I45" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="O45" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="P45" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>0</v>
+      </c>
+      <c r="R45" t="n">
+        <v>0</v>
+      </c>
+      <c r="S45" t="n">
+        <v>0</v>
+      </c>
+      <c r="T45" t="n">
+        <v>0</v>
+      </c>
+      <c r="U45" t="n">
+        <v>0</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="n">
+        <v>1</v>
+      </c>
+      <c r="X45" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Y45" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="Z45" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AA45" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="AB45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI45" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Mexico Ascenso MX</t>
+        </is>
+      </c>
+      <c r="B46" s="2" t="n">
+        <v>45063</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>22:00:00</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>0</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Morelia</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Tapatío</t>
+        </is>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0</v>
+      </c>
+      <c r="R46" t="n">
+        <v>0</v>
+      </c>
+      <c r="S46" t="n">
+        <v>0</v>
+      </c>
+      <c r="T46" t="n">
+        <v>0</v>
+      </c>
+      <c r="U46" t="n">
+        <v>0</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="X46" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="Y46" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="Z46" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AA46" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AB46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI46" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>USA MLS</t>
+        </is>
+      </c>
+      <c r="B47" s="2" t="n">
+        <v>45063</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>22:30:00</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>0</v>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Real Salt Lake</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Portland Timbers</t>
+        </is>
+      </c>
+      <c r="G47" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H47" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="I47" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="J47" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="K47" t="n">
+        <v>13</v>
+      </c>
+      <c r="L47" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="M47" t="n">
+        <v>4</v>
+      </c>
+      <c r="N47" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="O47" t="n">
+        <v>2</v>
+      </c>
+      <c r="P47" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="R47" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="S47" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="T47" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="U47" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="V47" t="n">
+        <v>2</v>
+      </c>
+      <c r="W47" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="X47" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="Y47" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="Z47" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AA47" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="AB47" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AC47" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD47" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE47" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AF47" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AG47" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AH47" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AI47" t="n">
+        <v>2.45</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>USA USL Championship</t>
+        </is>
+      </c>
+      <c r="B48" s="2" t="n">
+        <v>45063</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>23:00:00</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>0</v>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Orange County SC</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Sacramento Republic</t>
+        </is>
+      </c>
+      <c r="G48" t="n">
+        <v>3</v>
+      </c>
+      <c r="H48" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I48" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="J48" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="K48" t="n">
+        <v>9</v>
+      </c>
+      <c r="L48" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="M48" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="N48" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="O48" t="n">
+        <v>2</v>
+      </c>
+      <c r="P48" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>3</v>
+      </c>
+      <c r="R48" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="S48" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="T48" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="U48" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="V48" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="W48" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="X48" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="Y48" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="Z48" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AA48" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="AB48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF48" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AG48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>USA MLS</t>
+        </is>
+      </c>
+      <c r="B49" s="2" t="n">
+        <v>45063</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>23:30:00</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>0</v>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Los Angeles FC</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Sporting KC</t>
+        </is>
+      </c>
+      <c r="G49" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H49" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="I49" t="n">
+        <v>6</v>
+      </c>
+      <c r="J49" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="K49" t="n">
+        <v>17</v>
+      </c>
+      <c r="L49" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="M49" t="n">
+        <v>5</v>
+      </c>
+      <c r="N49" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="O49" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="P49" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="R49" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S49" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="T49" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="U49" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="V49" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="W49" t="n">
+        <v>3</v>
+      </c>
+      <c r="X49" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="Y49" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="Z49" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA49" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="AB49" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AC49" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD49" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE49" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AF49" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AG49" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AH49" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="AI49" t="n">
+        <v>2.63</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>USA MLS</t>
+        </is>
+      </c>
+      <c r="B50" s="2" t="n">
+        <v>45063</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>23:30:00</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>0</v>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Seattle Sounders</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Austin</t>
+        </is>
+      </c>
+      <c r="G50" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H50" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="I50" t="n">
+        <v>6</v>
+      </c>
+      <c r="J50" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="K50" t="n">
+        <v>15</v>
+      </c>
+      <c r="L50" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="M50" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="N50" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="O50" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="P50" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="R50" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="S50" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="T50" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="U50" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="V50" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="W50" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="X50" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="Y50" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="Z50" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AA50" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AB50" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AC50" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD50" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE50" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AF50" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AG50" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AH50" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AI50" t="n">
+        <v>2.4</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia/2023-05-17_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-05-17_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -642,13 +642,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.6</v>
+        <v>2.68</v>
       </c>
       <c r="H2" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="I2" t="n">
-        <v>2.45</v>
+        <v>2.38</v>
       </c>
       <c r="J2" t="n">
         <v>1.01</v>
@@ -663,10 +663,10 @@
         <v>3.5</v>
       </c>
       <c r="N2" t="n">
-        <v>1.87</v>
+        <v>1.82</v>
       </c>
       <c r="O2" t="n">
-        <v>1.87</v>
+        <v>1.82</v>
       </c>
       <c r="P2" t="n">
         <v>1.4</v>
@@ -690,10 +690,10 @@
         <v>1.47</v>
       </c>
       <c r="W2" t="n">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="X2" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="Y2" t="n">
         <v>1.26</v>
@@ -748,100 +748,100 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Fujieda MYFC</t>
+          <t>Tochigi</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Jubilo Iwata</t>
+          <t>Tokyo Verdy</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.4</v>
+        <v>3.3</v>
       </c>
       <c r="H3" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="I3" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="K3" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="L3" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="M3" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="N3" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="P3" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="Q3" t="n">
         <v>2.55</v>
       </c>
-      <c r="J3" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="K3" t="n">
-        <v>10</v>
-      </c>
-      <c r="L3" t="n">
+      <c r="R3" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="T3" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="U3" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="V3" t="n">
         <v>1.25</v>
       </c>
-      <c r="M3" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="N3" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="P3" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>3.28</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="S3" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="T3" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="U3" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="V3" t="n">
-        <v>1.45</v>
-      </c>
       <c r="W3" t="n">
-        <v>1.43</v>
+        <v>1.75</v>
       </c>
       <c r="X3" t="n">
-        <v>1.57</v>
+        <v>1.88</v>
       </c>
       <c r="Y3" t="n">
-        <v>1.54</v>
+        <v>1.32</v>
       </c>
       <c r="Z3" t="n">
-        <v>1.69</v>
+        <v>1.26</v>
       </c>
       <c r="AA3" t="n">
-        <v>3.23</v>
+        <v>2.58</v>
       </c>
       <c r="AB3" t="n">
-        <v>2.52</v>
+        <v>2.2</v>
       </c>
       <c r="AC3" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AD3" t="n">
-        <v>1.75</v>
+        <v>1.91</v>
       </c>
       <c r="AE3" t="n">
-        <v>1.29</v>
+        <v>1.35</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.52</v>
+        <v>1.63</v>
       </c>
       <c r="AG3" t="n">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="AH3" t="n">
-        <v>2.47</v>
+        <v>2.8</v>
       </c>
       <c r="AI3" t="n">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="4">
@@ -863,100 +863,100 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Machida Zelvia</t>
+          <t>V-Varen Nagasaki</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Renofa Yamaguchi</t>
+          <t>Fagiano Okayama</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.55</v>
+        <v>2.05</v>
       </c>
       <c r="H4" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="I4" t="n">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="J4" t="n">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="K4" t="n">
-        <v>8.5</v>
+        <v>7</v>
       </c>
       <c r="L4" t="n">
-        <v>1.31</v>
+        <v>1.37</v>
       </c>
       <c r="M4" t="n">
-        <v>3.08</v>
+        <v>2.8</v>
       </c>
       <c r="N4" t="n">
-        <v>1.95</v>
+        <v>1.87</v>
       </c>
       <c r="O4" t="n">
-        <v>1.8</v>
+        <v>1.87</v>
       </c>
       <c r="P4" t="n">
-        <v>1.42</v>
+        <v>1.5</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="R4" t="n">
-        <v>2.02</v>
+        <v>1.83</v>
       </c>
       <c r="S4" t="n">
-        <v>1.74</v>
+        <v>1.83</v>
       </c>
       <c r="T4" t="n">
-        <v>1.14</v>
+        <v>1.43</v>
       </c>
       <c r="U4" t="n">
-        <v>1.26</v>
+        <v>1.39</v>
       </c>
       <c r="V4" t="n">
-        <v>2.3</v>
+        <v>1.48</v>
       </c>
       <c r="W4" t="n">
-        <v>2.13</v>
+        <v>1.75</v>
       </c>
       <c r="X4" t="n">
-        <v>1.14</v>
+        <v>1.5</v>
       </c>
       <c r="Y4" t="n">
-        <v>1.49</v>
+        <v>1.37</v>
       </c>
       <c r="Z4" t="n">
-        <v>1.2</v>
+        <v>1.34</v>
       </c>
       <c r="AA4" t="n">
-        <v>2.69</v>
+        <v>2.71</v>
       </c>
       <c r="AB4" t="n">
-        <v>1.55</v>
+        <v>2.2</v>
       </c>
       <c r="AC4" t="n">
         <v>8</v>
       </c>
       <c r="AD4" t="n">
-        <v>2.92</v>
+        <v>1.91</v>
       </c>
       <c r="AE4" t="n">
-        <v>1.37</v>
+        <v>1.29</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.72</v>
+        <v>1.52</v>
       </c>
       <c r="AG4" t="n">
-        <v>2.2</v>
+        <v>1.9</v>
       </c>
       <c r="AH4" t="n">
-        <v>3</v>
+        <v>2.47</v>
       </c>
       <c r="AI4" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="5">
@@ -978,100 +978,100 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>JEF United</t>
+          <t>Roasso Kumamoto</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Shimizu S-Pulse</t>
+          <t>Vegalta Sendai</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>4</v>
+        <v>2.1</v>
       </c>
       <c r="H5" t="n">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="I5" t="n">
-        <v>1.73</v>
+        <v>3.3</v>
       </c>
       <c r="J5" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="K5" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="L5" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="M5" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="N5" t="n">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="O5" t="n">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="P5" t="n">
-        <v>1.41</v>
+        <v>1.36</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="R5" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="S5" t="n">
         <v>2.1</v>
       </c>
       <c r="T5" t="n">
-        <v>1.8</v>
+        <v>1.51</v>
       </c>
       <c r="U5" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="V5" t="n">
-        <v>1.18</v>
+        <v>1.46</v>
       </c>
       <c r="W5" t="n">
-        <v>1.29</v>
+        <v>1.56</v>
       </c>
       <c r="X5" t="n">
-        <v>1.43</v>
+        <v>1.5</v>
       </c>
       <c r="Y5" t="n">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="Z5" t="n">
-        <v>1.73</v>
+        <v>1.51</v>
       </c>
       <c r="AA5" t="n">
-        <v>3.55</v>
+        <v>3.18</v>
       </c>
       <c r="AB5" t="n">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="AC5" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AD5" t="n">
-        <v>1.91</v>
+        <v>2.33</v>
       </c>
       <c r="AE5" t="n">
-        <v>1.32</v>
+        <v>1.38</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.58</v>
+        <v>1.67</v>
       </c>
       <c r="AG5" t="n">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AH5" t="n">
-        <v>2.65</v>
+        <v>2.9</v>
       </c>
       <c r="AI5" t="n">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="6">
@@ -1093,28 +1093,28 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>ThespaKusatsu Gunma</t>
+          <t>Machida Zelvia</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Mito Hollyhock</t>
+          <t>Renofa Yamaguchi</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="H6" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="I6" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="J6" t="n">
         <v>1.03</v>
       </c>
       <c r="K6" t="n">
-        <v>8.4</v>
+        <v>8.5</v>
       </c>
       <c r="L6" t="n">
         <v>1.31</v>
@@ -1123,70 +1123,70 @@
         <v>3.08</v>
       </c>
       <c r="N6" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="O6" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="P6" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.65</v>
+        <v>2.75</v>
       </c>
       <c r="R6" t="n">
-        <v>1.95</v>
+        <v>2.02</v>
       </c>
       <c r="S6" t="n">
-        <v>1.8</v>
+        <v>1.74</v>
       </c>
       <c r="T6" t="n">
-        <v>1.3</v>
+        <v>1.14</v>
       </c>
       <c r="U6" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="V6" t="n">
-        <v>1.57</v>
+        <v>2.3</v>
       </c>
       <c r="W6" t="n">
-        <v>2</v>
+        <v>2.22</v>
       </c>
       <c r="X6" t="n">
-        <v>1.57</v>
+        <v>1</v>
       </c>
       <c r="Y6" t="n">
-        <v>1.04</v>
+        <v>1.49</v>
       </c>
       <c r="Z6" t="n">
-        <v>1.31</v>
+        <v>1.2</v>
       </c>
       <c r="AA6" t="n">
-        <v>2.35</v>
+        <v>2.69</v>
       </c>
       <c r="AB6" t="n">
-        <v>1.91</v>
+        <v>1.55</v>
       </c>
       <c r="AC6" t="n">
         <v>8</v>
       </c>
       <c r="AD6" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AG6" t="n">
         <v>2.2</v>
       </c>
-      <c r="AE6" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>1.85</v>
-      </c>
       <c r="AH6" t="n">
-        <v>2.37</v>
+        <v>3</v>
       </c>
       <c r="AI6" t="n">
-        <v>3.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1208,40 +1208,40 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Iwaki</t>
+          <t>JEF United</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Omiya Ardija</t>
+          <t>Shimizu S-Pulse</t>
         </is>
       </c>
       <c r="G7" t="n">
+        <v>4</v>
+      </c>
+      <c r="H7" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K7" t="n">
+        <v>10</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="M7" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="N7" t="n">
         <v>1.75</v>
       </c>
-      <c r="H7" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="I7" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="K7" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="L7" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="M7" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="N7" t="n">
+      <c r="O7" t="n">
         <v>2</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.75</v>
       </c>
       <c r="P7" t="n">
         <v>1.41</v>
@@ -1250,58 +1250,58 @@
         <v>2.7</v>
       </c>
       <c r="R7" t="n">
-        <v>1.87</v>
+        <v>1.68</v>
       </c>
       <c r="S7" t="n">
-        <v>1.87</v>
+        <v>2.1</v>
       </c>
       <c r="T7" t="n">
-        <v>1.17</v>
+        <v>1.8</v>
       </c>
       <c r="U7" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="V7" t="n">
-        <v>1.95</v>
+        <v>1.18</v>
       </c>
       <c r="W7" t="n">
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="X7" t="n">
-        <v>0.14</v>
+        <v>1.25</v>
       </c>
       <c r="Y7" t="n">
-        <v>1.61</v>
+        <v>1.82</v>
       </c>
       <c r="Z7" t="n">
-        <v>1.35</v>
+        <v>1.73</v>
       </c>
       <c r="AA7" t="n">
-        <v>2.96</v>
+        <v>3.55</v>
       </c>
       <c r="AB7" t="n">
-        <v>1.51</v>
+        <v>2.1</v>
       </c>
       <c r="AC7" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AD7" t="n">
-        <v>3.07</v>
+        <v>1.91</v>
       </c>
       <c r="AE7" t="n">
-        <v>1.29</v>
+        <v>1.32</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.48</v>
+        <v>1.58</v>
       </c>
       <c r="AG7" t="n">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="AH7" t="n">
-        <v>2.4</v>
+        <v>2.65</v>
       </c>
       <c r="AI7" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="8">
@@ -1323,22 +1323,22 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Tokushima Vortis</t>
+          <t>Iwaki</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Zweigen Kanazawa</t>
+          <t>Omiya Ardija</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.4</v>
+        <v>1.83</v>
       </c>
       <c r="H8" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="I8" t="n">
-        <v>2.7</v>
+        <v>4.2</v>
       </c>
       <c r="J8" t="n">
         <v>1.03</v>
@@ -1347,10 +1347,10 @@
         <v>8.4</v>
       </c>
       <c r="L8" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="M8" t="n">
-        <v>3.08</v>
+        <v>3.1</v>
       </c>
       <c r="N8" t="n">
         <v>2</v>
@@ -1359,64 +1359,64 @@
         <v>1.75</v>
       </c>
       <c r="P8" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="R8" t="n">
-        <v>1.8</v>
+        <v>1.87</v>
       </c>
       <c r="S8" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="T8" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="U8" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="V8" t="n">
         <v>1.95</v>
       </c>
-      <c r="T8" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="U8" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="V8" t="n">
-        <v>1.52</v>
-      </c>
       <c r="W8" t="n">
-        <v>0.43</v>
+        <v>1</v>
       </c>
       <c r="X8" t="n">
-        <v>0.75</v>
+        <v>0.13</v>
       </c>
       <c r="Y8" t="n">
-        <v>1.18</v>
+        <v>1.61</v>
       </c>
       <c r="Z8" t="n">
-        <v>1.13</v>
+        <v>1.35</v>
       </c>
       <c r="AA8" t="n">
-        <v>2.31</v>
+        <v>2.96</v>
       </c>
       <c r="AB8" t="n">
-        <v>1.82</v>
+        <v>1.51</v>
       </c>
       <c r="AC8" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AD8" t="n">
-        <v>2.39</v>
+        <v>3.07</v>
       </c>
       <c r="AE8" t="n">
-        <v>1.35</v>
+        <v>1.29</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.63</v>
+        <v>1.48</v>
       </c>
       <c r="AG8" t="n">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="AH8" t="n">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="AI8" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="9">
@@ -1438,34 +1438,34 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Blaublitz Akita</t>
+          <t>ThespaKusatsu Gunma</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Ventforet Kofu</t>
+          <t>Mito Hollyhock</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.45</v>
+        <v>1.72</v>
       </c>
       <c r="H9" t="n">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="I9" t="n">
-        <v>2.63</v>
+        <v>4.5</v>
       </c>
       <c r="J9" t="n">
         <v>1.03</v>
       </c>
       <c r="K9" t="n">
-        <v>8.5</v>
+        <v>8.4</v>
       </c>
       <c r="L9" t="n">
-        <v>1.52</v>
+        <v>1.31</v>
       </c>
       <c r="M9" t="n">
-        <v>2.43</v>
+        <v>3.08</v>
       </c>
       <c r="N9" t="n">
         <v>2</v>
@@ -1480,34 +1480,34 @@
         <v>2.65</v>
       </c>
       <c r="R9" t="n">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="S9" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="T9" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="U9" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="V9" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="W9" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="X9" t="n">
         <v>1.38</v>
       </c>
-      <c r="U9" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="V9" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="W9" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="X9" t="n">
-        <v>1.17</v>
-      </c>
       <c r="Y9" t="n">
-        <v>1.22</v>
+        <v>1.04</v>
       </c>
       <c r="Z9" t="n">
-        <v>1.28</v>
+        <v>1.31</v>
       </c>
       <c r="AA9" t="n">
-        <v>2.5</v>
+        <v>2.35</v>
       </c>
       <c r="AB9" t="n">
         <v>1.91</v>
@@ -1519,19 +1519,19 @@
         <v>2.2</v>
       </c>
       <c r="AE9" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.42</v>
+        <v>1.49</v>
       </c>
       <c r="AG9" t="n">
-        <v>1.73</v>
+        <v>1.85</v>
       </c>
       <c r="AH9" t="n">
-        <v>2.22</v>
+        <v>2.37</v>
       </c>
       <c r="AI9" t="n">
-        <v>2.95</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="10">
@@ -1553,100 +1553,100 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Tochigi</t>
+          <t>Blaublitz Akita</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Tokyo Verdy</t>
+          <t>Ventforet Kofu</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="H10" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I10" t="n">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="J10" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K10" t="n">
-        <v>7.8</v>
+        <v>8.5</v>
       </c>
       <c r="L10" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="M10" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="N10" t="n">
+        <v>2</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="P10" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="S10" t="n">
+        <v>2</v>
+      </c>
+      <c r="T10" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="U10" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="V10" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="W10" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="X10" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AA10" t="n">
         <v>2.5</v>
       </c>
-      <c r="N10" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="P10" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="R10" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="S10" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="T10" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="U10" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="V10" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="W10" t="n">
-        <v>2</v>
-      </c>
-      <c r="X10" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>2.58</v>
-      </c>
       <c r="AB10" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD10" t="n">
         <v>2.2</v>
       </c>
-      <c r="AC10" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>1.91</v>
-      </c>
       <c r="AE10" t="n">
-        <v>1.35</v>
+        <v>1.21</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.63</v>
+        <v>1.42</v>
       </c>
       <c r="AG10" t="n">
-        <v>2.1</v>
+        <v>1.73</v>
       </c>
       <c r="AH10" t="n">
-        <v>2.8</v>
+        <v>2.22</v>
       </c>
       <c r="AI10" t="n">
-        <v>3.8</v>
+        <v>2.95</v>
       </c>
     </row>
     <row r="11">
@@ -1668,100 +1668,100 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>V-Varen Nagasaki</t>
+          <t>Tokushima Vortis</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Fagiano Okayama</t>
+          <t>Zweigen Kanazawa</t>
         </is>
       </c>
       <c r="G11" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H11" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I11" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="K11" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="L11" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="M11" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="N11" t="n">
         <v>2</v>
       </c>
-      <c r="H11" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="I11" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="K11" t="n">
-        <v>7</v>
-      </c>
-      <c r="L11" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="M11" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="N11" t="n">
-        <v>1.87</v>
-      </c>
       <c r="O11" t="n">
-        <v>1.87</v>
+        <v>1.75</v>
       </c>
       <c r="P11" t="n">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="R11" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="S11" t="n">
-        <v>1.83</v>
+        <v>1.95</v>
       </c>
       <c r="T11" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="U11" t="n">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="V11" t="n">
-        <v>1.48</v>
+        <v>1.52</v>
       </c>
       <c r="W11" t="n">
-        <v>1.86</v>
+        <v>0.75</v>
       </c>
       <c r="X11" t="n">
-        <v>1.57</v>
+        <v>0.67</v>
       </c>
       <c r="Y11" t="n">
-        <v>1.37</v>
+        <v>1.18</v>
       </c>
       <c r="Z11" t="n">
-        <v>1.34</v>
+        <v>1.13</v>
       </c>
       <c r="AA11" t="n">
-        <v>2.71</v>
+        <v>2.31</v>
       </c>
       <c r="AB11" t="n">
-        <v>2.2</v>
+        <v>1.82</v>
       </c>
       <c r="AC11" t="n">
         <v>8</v>
       </c>
       <c r="AD11" t="n">
-        <v>1.91</v>
+        <v>2.39</v>
       </c>
       <c r="AE11" t="n">
-        <v>1.29</v>
+        <v>1.35</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.52</v>
+        <v>1.63</v>
       </c>
       <c r="AG11" t="n">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="AH11" t="n">
-        <v>2.47</v>
+        <v>2.8</v>
       </c>
       <c r="AI11" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="12">
@@ -1783,100 +1783,100 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Roasso Kumamoto</t>
+          <t>Fujieda MYFC</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Vegalta Sendai</t>
+          <t>Jubilo Iwata</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.05</v>
+        <v>2.45</v>
       </c>
       <c r="H12" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I12" t="n">
-        <v>3.25</v>
+        <v>2.65</v>
       </c>
       <c r="J12" t="n">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="K12" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="L12" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="M12" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="N12" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="P12" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="S12" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="T12" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="U12" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="V12" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="W12" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X12" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AG12" t="n">
         <v>1.9</v>
       </c>
-      <c r="O12" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="P12" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>3</v>
-      </c>
-      <c r="R12" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="S12" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="T12" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="U12" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="V12" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="W12" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="X12" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>3.18</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>2.33</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>2.17</v>
-      </c>
       <c r="AH12" t="n">
-        <v>2.9</v>
+        <v>2.47</v>
       </c>
       <c r="AI12" t="n">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="13">
@@ -1907,13 +1907,13 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.62</v>
+        <v>1.8</v>
       </c>
       <c r="H13" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="I13" t="n">
         <v>4</v>
-      </c>
-      <c r="I13" t="n">
-        <v>4.75</v>
       </c>
       <c r="J13" t="n">
         <v>1.04</v>
@@ -2013,12 +2013,12 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Beşiktaş</t>
+          <t>Giresunspor</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Gazişehir Gaziantep</t>
+          <t>Hatayspor</t>
         </is>
       </c>
       <c r="G14" t="n">
@@ -2070,19 +2070,19 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>2.44</v>
+        <v>1.07</v>
       </c>
       <c r="X14" t="n">
-        <v>0.8</v>
+        <v>0.44</v>
       </c>
       <c r="Y14" t="n">
-        <v>2.25</v>
+        <v>1.84</v>
       </c>
       <c r="Z14" t="n">
-        <v>1.42</v>
+        <v>1.37</v>
       </c>
       <c r="AA14" t="n">
-        <v>3.67</v>
+        <v>3.21</v>
       </c>
       <c r="AB14" t="n">
         <v>0</v>
@@ -2128,12 +2128,12 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Giresunspor</t>
+          <t>Beşiktaş</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Hatayspor</t>
+          <t>Gazişehir Gaziantep</t>
         </is>
       </c>
       <c r="G15" t="n">
@@ -2185,19 +2185,19 @@
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>1.07</v>
+        <v>2.44</v>
       </c>
       <c r="X15" t="n">
-        <v>0.44</v>
+        <v>0.8</v>
       </c>
       <c r="Y15" t="n">
-        <v>1.84</v>
+        <v>2.25</v>
       </c>
       <c r="Z15" t="n">
-        <v>1.37</v>
+        <v>1.42</v>
       </c>
       <c r="AA15" t="n">
-        <v>3.21</v>
+        <v>3.67</v>
       </c>
       <c r="AB15" t="n">
         <v>0</v>
@@ -2252,13 +2252,13 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.45</v>
+        <v>2.37</v>
       </c>
       <c r="H16" t="n">
-        <v>3.08</v>
+        <v>2.85</v>
       </c>
       <c r="I16" t="n">
-        <v>3.08</v>
+        <v>3.05</v>
       </c>
       <c r="J16" t="n">
         <v>1.07</v>
@@ -2273,10 +2273,10 @@
         <v>2.53</v>
       </c>
       <c r="N16" t="n">
-        <v>2.56</v>
+        <v>2.35</v>
       </c>
       <c r="O16" t="n">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="P16" t="n">
         <v>1.54</v>
@@ -2358,100 +2358,100 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Ankaragücü</t>
+          <t>Fatih Karagümrük</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Antalyaspor</t>
+          <t>Adana Demirspor</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.3</v>
+        <v>2.95</v>
       </c>
       <c r="H17" t="n">
-        <v>3.5</v>
+        <v>3.85</v>
       </c>
       <c r="I17" t="n">
-        <v>2.8</v>
+        <v>2.14</v>
       </c>
       <c r="J17" t="n">
-        <v>1.05</v>
+        <v>1.01</v>
       </c>
       <c r="K17" t="n">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="L17" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="M17" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="N17" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="O17" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="P17" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>4</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="S17" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="T17" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="U17" t="n">
         <v>1.25</v>
       </c>
-      <c r="M17" t="n">
-        <v>3.82</v>
-      </c>
-      <c r="N17" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="P17" t="n">
+      <c r="V17" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="W17" t="n">
         <v>1.33</v>
       </c>
-      <c r="Q17" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="R17" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="S17" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="T17" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="U17" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="V17" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="W17" t="n">
-        <v>1.4</v>
-      </c>
       <c r="X17" t="n">
-        <v>0.87</v>
+        <v>1.33</v>
       </c>
       <c r="Y17" t="n">
-        <v>1.66</v>
+        <v>1.48</v>
       </c>
       <c r="Z17" t="n">
-        <v>1.27</v>
+        <v>1.75</v>
       </c>
       <c r="AA17" t="n">
-        <v>2.93</v>
+        <v>3.23</v>
       </c>
       <c r="AB17" t="n">
-        <v>1.73</v>
+        <v>2.4</v>
       </c>
       <c r="AC17" t="n">
         <v>8</v>
       </c>
       <c r="AD17" t="n">
-        <v>2.38</v>
+        <v>1.73</v>
       </c>
       <c r="AE17" t="n">
-        <v>1.29</v>
+        <v>1.23</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.52</v>
+        <v>1.49</v>
       </c>
       <c r="AG17" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="AH17" t="n">
-        <v>2.47</v>
+        <v>2.37</v>
       </c>
       <c r="AI17" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="18">
@@ -2473,100 +2473,100 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Fatih Karagümrük</t>
+          <t>Ankaragücü</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Adana Demirspor</t>
+          <t>Antalyaspor</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2.9</v>
+        <v>2.31</v>
       </c>
       <c r="H18" t="n">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="I18" t="n">
-        <v>2.1</v>
+        <v>2.85</v>
       </c>
       <c r="J18" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="K18" t="n">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="L18" t="n">
-        <v>1.1</v>
+        <v>1.25</v>
       </c>
       <c r="M18" t="n">
-        <v>6.6</v>
+        <v>3.82</v>
       </c>
       <c r="N18" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="O18" t="n">
-        <v>2.37</v>
+        <v>1.95</v>
       </c>
       <c r="P18" t="n">
-        <v>1.22</v>
+        <v>1.33</v>
       </c>
       <c r="Q18" t="n">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="R18" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S18" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="T18" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="U18" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="V18" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="W18" t="n">
         <v>1.4</v>
       </c>
-      <c r="S18" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="T18" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="U18" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="V18" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="W18" t="n">
-        <v>1.33</v>
-      </c>
       <c r="X18" t="n">
-        <v>1.33</v>
+        <v>0.87</v>
       </c>
       <c r="Y18" t="n">
-        <v>1.48</v>
+        <v>1.66</v>
       </c>
       <c r="Z18" t="n">
-        <v>1.75</v>
+        <v>1.27</v>
       </c>
       <c r="AA18" t="n">
-        <v>3.23</v>
+        <v>2.93</v>
       </c>
       <c r="AB18" t="n">
-        <v>2.4</v>
+        <v>1.73</v>
       </c>
       <c r="AC18" t="n">
         <v>8</v>
       </c>
       <c r="AD18" t="n">
-        <v>1.73</v>
+        <v>2.38</v>
       </c>
       <c r="AE18" t="n">
-        <v>1.23</v>
+        <v>1.29</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.49</v>
+        <v>1.52</v>
       </c>
       <c r="AG18" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="AH18" t="n">
-        <v>2.37</v>
+        <v>2.47</v>
       </c>
       <c r="AI18" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
     </row>
     <row r="19">
@@ -2597,13 +2597,13 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="H19" t="n">
-        <v>3.3</v>
+        <v>3.07</v>
       </c>
       <c r="I19" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="J19" t="n">
         <v>1.04</v>
@@ -2618,10 +2618,10 @@
         <v>3.88</v>
       </c>
       <c r="N19" t="n">
-        <v>1.85</v>
+        <v>1.94</v>
       </c>
       <c r="O19" t="n">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="P19" t="n">
         <v>1.4</v>
@@ -2712,13 +2712,13 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.57</v>
+        <v>1.66</v>
       </c>
       <c r="H20" t="n">
         <v>4.2</v>
       </c>
       <c r="I20" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="J20" t="n">
         <v>1.03</v>
@@ -2733,10 +2733,10 @@
         <v>5</v>
       </c>
       <c r="N20" t="n">
-        <v>1.68</v>
+        <v>1.6</v>
       </c>
       <c r="O20" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="P20" t="n">
         <v>1.29</v>
@@ -2827,13 +2827,13 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.95</v>
+        <v>2.22</v>
       </c>
       <c r="H21" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I21" t="n">
         <v>3.3</v>
-      </c>
-      <c r="I21" t="n">
-        <v>3.6</v>
       </c>
       <c r="J21" t="n">
         <v>1.05</v>
@@ -2848,10 +2848,10 @@
         <v>3.25</v>
       </c>
       <c r="N21" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="O21" t="n">
-        <v>1.7</v>
+        <v>1.61</v>
       </c>
       <c r="P21" t="n">
         <v>1.42</v>
@@ -2942,13 +2942,13 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="H22" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="I22" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2963,10 +2963,10 @@
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="O22" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -3060,10 +3060,10 @@
         <v>2.5</v>
       </c>
       <c r="H23" t="n">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="I23" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="J23" t="n">
         <v>1.05</v>
@@ -3078,7 +3078,7 @@
         <v>3.5</v>
       </c>
       <c r="N23" t="n">
-        <v>1.8</v>
+        <v>1.86</v>
       </c>
       <c r="O23" t="n">
         <v>1.91</v>
@@ -3120,28 +3120,28 @@
         <v>3.23</v>
       </c>
       <c r="AB23" t="n">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="AC23" t="n">
-        <v>0</v>
+        <v>6.6</v>
       </c>
       <c r="AD23" t="n">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="AE23" t="n">
-        <v>0</v>
+        <v>1.61</v>
       </c>
       <c r="AF23" t="n">
-        <v>0</v>
+        <v>2.07</v>
       </c>
       <c r="AG23" t="n">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="AH23" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AI23" t="n">
-        <v>0</v>
+        <v>6.1</v>
       </c>
     </row>
     <row r="24">
@@ -3163,100 +3163,100 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Columbus Crew</t>
+          <t>Charlotte</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>LA Galaxy</t>
+          <t>Chicago Fire</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.67</v>
+        <v>2.2</v>
       </c>
       <c r="H24" t="n">
-        <v>4</v>
+        <v>3.56</v>
       </c>
       <c r="I24" t="n">
-        <v>4.75</v>
+        <v>3.04</v>
       </c>
       <c r="J24" t="n">
         <v>1.03</v>
       </c>
       <c r="K24" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L24" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="M24" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="N24" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="O24" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="P24" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="R24" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S24" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="T24" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="U24" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="V24" t="n">
         <v>1.78</v>
       </c>
-      <c r="O24" t="n">
-        <v>2</v>
-      </c>
-      <c r="P24" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="R24" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="S24" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="T24" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="U24" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="V24" t="n">
-        <v>2</v>
-      </c>
       <c r="W24" t="n">
-        <v>1.83</v>
+        <v>1.33</v>
       </c>
       <c r="X24" t="n">
-        <v>0.4</v>
+        <v>0.75</v>
       </c>
       <c r="Y24" t="n">
-        <v>1.99</v>
+        <v>1.31</v>
       </c>
       <c r="Z24" t="n">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AA24" t="n">
-        <v>3.19</v>
+        <v>2.62</v>
       </c>
       <c r="AB24" t="n">
-        <v>1.73</v>
+        <v>1.65</v>
       </c>
       <c r="AC24" t="n">
-        <v>9.1</v>
+        <v>8.9</v>
       </c>
       <c r="AD24" t="n">
-        <v>2.47</v>
+        <v>2.67</v>
       </c>
       <c r="AE24" t="n">
-        <v>1.24</v>
+        <v>1.3</v>
       </c>
       <c r="AF24" t="n">
-        <v>1.44</v>
+        <v>1.57</v>
       </c>
       <c r="AG24" t="n">
-        <v>1.8</v>
+        <v>1.98</v>
       </c>
       <c r="AH24" t="n">
-        <v>2.35</v>
+        <v>2.7</v>
       </c>
       <c r="AI24" t="n">
-        <v>3.25</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="25">
@@ -3278,100 +3278,100 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Orlando City</t>
+          <t>Atlanta United FC</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>New York City</t>
+          <t>Colorado Rapids</t>
         </is>
       </c>
       <c r="G25" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="H25" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="I25" t="n">
+        <v>6</v>
+      </c>
+      <c r="J25" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="K25" t="n">
+        <v>15</v>
+      </c>
+      <c r="L25" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="M25" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="N25" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="O25" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="P25" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="R25" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="S25" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="T25" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="U25" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="V25" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="W25" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="X25" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AI25" t="n">
         <v>2.4</v>
-      </c>
-      <c r="H25" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="I25" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="J25" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="K25" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="L25" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="M25" t="n">
-        <v>3.08</v>
-      </c>
-      <c r="N25" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="O25" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="P25" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>3</v>
-      </c>
-      <c r="R25" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="S25" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="T25" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="U25" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="V25" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="W25" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="X25" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="Y25" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="Z25" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="AA25" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="AB25" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="AC25" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AD25" t="n">
-        <v>2.49</v>
-      </c>
-      <c r="AE25" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="AF25" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="AG25" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="AH25" t="n">
-        <v>3</v>
-      </c>
-      <c r="AI25" t="n">
-        <v>3.64</v>
       </c>
     </row>
     <row r="26">
@@ -3402,13 +3402,13 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1.47</v>
+        <v>1.54</v>
       </c>
       <c r="H26" t="n">
-        <v>4.33</v>
+        <v>4.25</v>
       </c>
       <c r="I26" t="n">
-        <v>6</v>
+        <v>5.6</v>
       </c>
       <c r="J26" t="n">
         <v>1.03</v>
@@ -3423,10 +3423,10 @@
         <v>4</v>
       </c>
       <c r="N26" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="O26" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="P26" t="n">
         <v>1.33</v>
@@ -3508,100 +3508,100 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Atlanta United FC</t>
+          <t>Orlando City</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Colorado Rapids</t>
+          <t>New York City</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1.53</v>
+        <v>2.45</v>
       </c>
       <c r="H27" t="n">
-        <v>4.33</v>
+        <v>3.42</v>
       </c>
       <c r="I27" t="n">
-        <v>5.5</v>
+        <v>2.74</v>
       </c>
       <c r="J27" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K27" t="n">
-        <v>15</v>
+        <v>8.4</v>
       </c>
       <c r="L27" t="n">
-        <v>1.22</v>
+        <v>1.31</v>
       </c>
       <c r="M27" t="n">
-        <v>4.2</v>
+        <v>3.08</v>
       </c>
       <c r="N27" t="n">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="O27" t="n">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="P27" t="n">
-        <v>1.31</v>
+        <v>1.4</v>
       </c>
       <c r="Q27" t="n">
-        <v>3.28</v>
+        <v>3</v>
       </c>
       <c r="R27" t="n">
-        <v>1.68</v>
+        <v>1.85</v>
       </c>
       <c r="S27" t="n">
-        <v>2.13</v>
+        <v>1.9</v>
       </c>
       <c r="T27" t="n">
-        <v>1.19</v>
+        <v>1.35</v>
       </c>
       <c r="U27" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="V27" t="n">
-        <v>2.17</v>
+        <v>1.72</v>
       </c>
       <c r="W27" t="n">
-        <v>2.17</v>
+        <v>1.17</v>
       </c>
       <c r="X27" t="n">
-        <v>1.29</v>
+        <v>0.29</v>
       </c>
       <c r="Y27" t="n">
-        <v>1.63</v>
+        <v>1.42</v>
       </c>
       <c r="Z27" t="n">
-        <v>1.21</v>
+        <v>1.03</v>
       </c>
       <c r="AA27" t="n">
-        <v>2.84</v>
+        <v>2.45</v>
       </c>
       <c r="AB27" t="n">
-        <v>1.33</v>
+        <v>1.73</v>
       </c>
       <c r="AC27" t="n">
-        <v>7</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD27" t="n">
-        <v>3.9</v>
+        <v>2.49</v>
       </c>
       <c r="AE27" t="n">
-        <v>1.16</v>
+        <v>1.36</v>
       </c>
       <c r="AF27" t="n">
-        <v>1.26</v>
+        <v>1.66</v>
       </c>
       <c r="AG27" t="n">
-        <v>1.49</v>
+        <v>2.15</v>
       </c>
       <c r="AH27" t="n">
-        <v>1.83</v>
+        <v>3</v>
       </c>
       <c r="AI27" t="n">
-        <v>2.4</v>
+        <v>3.64</v>
       </c>
     </row>
     <row r="28">
@@ -3632,13 +3632,13 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1.6</v>
+        <v>1.63</v>
       </c>
       <c r="H28" t="n">
         <v>4</v>
       </c>
       <c r="I28" t="n">
-        <v>5</v>
+        <v>5.4</v>
       </c>
       <c r="J28" t="n">
         <v>1.03</v>
@@ -3653,10 +3653,10 @@
         <v>3.75</v>
       </c>
       <c r="N28" t="n">
-        <v>1.78</v>
+        <v>1.73</v>
       </c>
       <c r="O28" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="P28" t="n">
         <v>1.37</v>
@@ -3747,13 +3747,13 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="H29" t="n">
-        <v>3.4</v>
+        <v>3.42</v>
       </c>
       <c r="I29" t="n">
-        <v>3.4</v>
+        <v>3.37</v>
       </c>
       <c r="J29" t="n">
         <v>1.06</v>
@@ -3771,7 +3771,7 @@
         <v>2</v>
       </c>
       <c r="O29" t="n">
-        <v>1.78</v>
+        <v>1.67</v>
       </c>
       <c r="P29" t="n">
         <v>1.42</v>
@@ -3853,100 +3853,100 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Charlotte</t>
+          <t>Columbus Crew</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Chicago Fire</t>
+          <t>LA Galaxy</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>2.15</v>
+        <v>1.7</v>
       </c>
       <c r="H30" t="n">
-        <v>3.6</v>
+        <v>3.89</v>
       </c>
       <c r="I30" t="n">
-        <v>3.1</v>
+        <v>4.56</v>
       </c>
       <c r="J30" t="n">
         <v>1.03</v>
       </c>
       <c r="K30" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L30" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="M30" t="n">
+        <v>4</v>
+      </c>
+      <c r="N30" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="O30" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="P30" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="R30" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="S30" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="T30" t="n">
         <v>1.22</v>
       </c>
-      <c r="M30" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="N30" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="O30" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="P30" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>3.16</v>
-      </c>
-      <c r="R30" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="S30" t="n">
-        <v>2.23</v>
-      </c>
-      <c r="T30" t="n">
-        <v>1.31</v>
-      </c>
       <c r="U30" t="n">
-        <v>1.28</v>
+        <v>1.22</v>
       </c>
       <c r="V30" t="n">
-        <v>1.78</v>
+        <v>2</v>
       </c>
       <c r="W30" t="n">
-        <v>1.33</v>
+        <v>1.83</v>
       </c>
       <c r="X30" t="n">
-        <v>0.75</v>
+        <v>0.4</v>
       </c>
       <c r="Y30" t="n">
-        <v>1.31</v>
+        <v>1.99</v>
       </c>
       <c r="Z30" t="n">
-        <v>1.31</v>
+        <v>1.2</v>
       </c>
       <c r="AA30" t="n">
-        <v>2.62</v>
+        <v>3.19</v>
       </c>
       <c r="AB30" t="n">
-        <v>1.65</v>
+        <v>1.73</v>
       </c>
       <c r="AC30" t="n">
-        <v>8.9</v>
+        <v>9.1</v>
       </c>
       <c r="AD30" t="n">
-        <v>2.67</v>
+        <v>2.47</v>
       </c>
       <c r="AE30" t="n">
-        <v>1.3</v>
+        <v>1.24</v>
       </c>
       <c r="AF30" t="n">
-        <v>1.57</v>
+        <v>1.44</v>
       </c>
       <c r="AG30" t="n">
-        <v>1.98</v>
+        <v>1.8</v>
       </c>
       <c r="AH30" t="n">
-        <v>2.7</v>
+        <v>2.35</v>
       </c>
       <c r="AI30" t="n">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
     </row>
     <row r="31">
@@ -3968,40 +3968,40 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Deportes Tolima</t>
+          <t>Once Caldas</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Atlético Nacional</t>
+          <t>Santa Fe</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2.33</v>
+        <v>2.6</v>
       </c>
       <c r="H31" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="I31" t="n">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="J31" t="n">
         <v>1.06</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>8.25</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>3.03</v>
       </c>
       <c r="N31" t="n">
         <v>2.05</v>
       </c>
       <c r="O31" t="n">
-        <v>1.78</v>
+        <v>1.61</v>
       </c>
       <c r="P31" t="n">
         <v>1.44</v>
@@ -4016,52 +4016,52 @@
         <v>1.83</v>
       </c>
       <c r="T31" t="n">
-        <v>1.35</v>
+        <v>1.57</v>
       </c>
       <c r="U31" t="n">
-        <v>1.22</v>
+        <v>1.37</v>
       </c>
       <c r="V31" t="n">
-        <v>1.62</v>
+        <v>1.4</v>
       </c>
       <c r="W31" t="n">
-        <v>1.89</v>
+        <v>1.11</v>
       </c>
       <c r="X31" t="n">
-        <v>1.67</v>
+        <v>0.78</v>
       </c>
       <c r="Y31" t="n">
-        <v>1.9</v>
+        <v>1.59</v>
       </c>
       <c r="Z31" t="n">
-        <v>1.47</v>
+        <v>1.51</v>
       </c>
       <c r="AA31" t="n">
-        <v>3.37</v>
+        <v>3.1</v>
       </c>
       <c r="AB31" t="n">
-        <v>0</v>
+        <v>2.12</v>
       </c>
       <c r="AC31" t="n">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="AD31" t="n">
-        <v>0</v>
+        <v>1.99</v>
       </c>
       <c r="AE31" t="n">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="AF31" t="n">
-        <v>1.62</v>
+        <v>1.8</v>
       </c>
       <c r="AG31" t="n">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AH31" t="n">
-        <v>2.5</v>
+        <v>3.4</v>
       </c>
       <c r="AI31" t="n">
-        <v>0</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="32">
@@ -4083,100 +4083,100 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Once Caldas</t>
+          <t>Deportivo Pasto</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Santa Fe</t>
+          <t>Envigado</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>2.6</v>
+        <v>1.82</v>
       </c>
       <c r="H32" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="I32" t="n">
-        <v>2.8</v>
+        <v>4.6</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="N32" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="O32" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="P32" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R32" t="n">
         <v>2.2</v>
       </c>
-      <c r="O32" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="P32" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="R32" t="n">
-        <v>1.83</v>
-      </c>
       <c r="S32" t="n">
-        <v>1.83</v>
+        <v>1.62</v>
       </c>
       <c r="T32" t="n">
-        <v>1.57</v>
+        <v>1.11</v>
       </c>
       <c r="U32" t="n">
-        <v>1.37</v>
+        <v>1.2</v>
       </c>
       <c r="V32" t="n">
-        <v>1.4</v>
+        <v>2.65</v>
       </c>
       <c r="W32" t="n">
-        <v>1.11</v>
+        <v>1.67</v>
       </c>
       <c r="X32" t="n">
         <v>0.78</v>
       </c>
       <c r="Y32" t="n">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="Z32" t="n">
-        <v>1.51</v>
+        <v>1.45</v>
       </c>
       <c r="AA32" t="n">
-        <v>3.1</v>
+        <v>2.95</v>
       </c>
       <c r="AB32" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="AC32" t="n">
-        <v>0</v>
+        <v>9.4</v>
       </c>
       <c r="AD32" t="n">
-        <v>0</v>
+        <v>4.05</v>
       </c>
       <c r="AE32" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="AF32" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="AG32" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="AH32" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="AI32" t="n">
-        <v>0</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="33">
@@ -4198,40 +4198,40 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Deportivo Pereira</t>
+          <t>Atlético Bucaramanga</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Alianza Petrolera</t>
+          <t>América de Cali</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1.83</v>
+        <v>2.65</v>
       </c>
       <c r="H33" t="n">
-        <v>3.45</v>
+        <v>3</v>
       </c>
       <c r="I33" t="n">
-        <v>4.1</v>
+        <v>2.8</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="N33" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="O33" t="n">
-        <v>1.82</v>
+        <v>1.6</v>
       </c>
       <c r="P33" t="n">
         <v>1.44</v>
@@ -4246,58 +4246,58 @@
         <v>1.83</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="W33" t="n">
-        <v>1.44</v>
+        <v>1.11</v>
       </c>
       <c r="X33" t="n">
-        <v>0.67</v>
+        <v>1.22</v>
       </c>
       <c r="Y33" t="n">
-        <v>1.6</v>
+        <v>1.52</v>
       </c>
       <c r="Z33" t="n">
         <v>1.31</v>
       </c>
       <c r="AA33" t="n">
-        <v>2.91</v>
+        <v>2.83</v>
       </c>
       <c r="AB33" t="n">
-        <v>0</v>
+        <v>1.92</v>
       </c>
       <c r="AC33" t="n">
-        <v>0</v>
+        <v>8.6</v>
       </c>
       <c r="AD33" t="n">
-        <v>0</v>
+        <v>2.19</v>
       </c>
       <c r="AE33" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AF33" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="AG33" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="AH33" t="n">
         <v>2.5</v>
       </c>
       <c r="AI33" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Peru Primera División</t>
+          <t>Colombia Categoria Primera A</t>
         </is>
       </c>
       <c r="B34" s="2" t="n">
@@ -4309,104 +4309,104 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Deportivo Binacional</t>
+          <t>Deportivo Cali</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Sporting Cristal</t>
+          <t>Boyacá Chicó</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>2.37</v>
+        <v>2.49</v>
       </c>
       <c r="H34" t="n">
-        <v>3.18</v>
+        <v>3.05</v>
       </c>
       <c r="I34" t="n">
-        <v>2.61</v>
+        <v>2.95</v>
       </c>
       <c r="J34" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="K34" t="n">
-        <v>15.25</v>
+        <v>7.5</v>
       </c>
       <c r="L34" t="n">
-        <v>1.22</v>
+        <v>1.38</v>
       </c>
       <c r="M34" t="n">
-        <v>3.74</v>
+        <v>2.8</v>
       </c>
       <c r="N34" t="n">
-        <v>1.82</v>
+        <v>2.2</v>
       </c>
       <c r="O34" t="n">
-        <v>2</v>
+        <v>1.57</v>
       </c>
       <c r="P34" t="n">
-        <v>1.35</v>
+        <v>1.5</v>
       </c>
       <c r="Q34" t="n">
-        <v>2.9</v>
+        <v>2.5</v>
       </c>
       <c r="R34" t="n">
-        <v>1.65</v>
+        <v>1.83</v>
       </c>
       <c r="S34" t="n">
-        <v>2.1</v>
+        <v>1.83</v>
       </c>
       <c r="T34" t="n">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="U34" t="n">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="V34" t="n">
-        <v>1.65</v>
+        <v>1.69</v>
       </c>
       <c r="W34" t="n">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="X34" t="n">
-        <v>1.17</v>
+        <v>0.78</v>
       </c>
       <c r="Y34" t="n">
-        <v>1.76</v>
+        <v>1.74</v>
       </c>
       <c r="Z34" t="n">
-        <v>1.47</v>
+        <v>0.98</v>
       </c>
       <c r="AA34" t="n">
-        <v>3.23</v>
+        <v>2.72</v>
       </c>
       <c r="AB34" t="n">
-        <v>1.91</v>
+        <v>1.6</v>
       </c>
       <c r="AC34" t="n">
-        <v>8.5</v>
+        <v>8.9</v>
       </c>
       <c r="AD34" t="n">
-        <v>2.1</v>
+        <v>2.88</v>
       </c>
       <c r="AE34" t="n">
-        <v>1.15</v>
+        <v>1.44</v>
       </c>
       <c r="AF34" t="n">
-        <v>1.29</v>
+        <v>1.73</v>
       </c>
       <c r="AG34" t="n">
-        <v>1.51</v>
+        <v>2.2</v>
       </c>
       <c r="AH34" t="n">
-        <v>1.85</v>
+        <v>2.98</v>
       </c>
       <c r="AI34" t="n">
-        <v>2.37</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -4428,100 +4428,100 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Deportivo Pasto</t>
+          <t>Rionegro Águilas</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Envigado</t>
+          <t>Jaguares de Córdoba</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1.82</v>
+        <v>1.73</v>
       </c>
       <c r="H35" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="I35" t="n">
-        <v>4.6</v>
+        <v>5.2</v>
       </c>
       <c r="J35" t="n">
-        <v>1.05</v>
+        <v>1.01</v>
       </c>
       <c r="K35" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="L35" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="M35" t="n">
         <v>3.25</v>
       </c>
       <c r="N35" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="O35" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="P35" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="R35" t="n">
         <v>2.1</v>
       </c>
-      <c r="O35" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="P35" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="R35" t="n">
-        <v>2.2</v>
-      </c>
       <c r="S35" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="T35" t="n">
-        <v>1.11</v>
+        <v>1.15</v>
       </c>
       <c r="U35" t="n">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="V35" t="n">
-        <v>2.65</v>
+        <v>2.25</v>
       </c>
       <c r="W35" t="n">
-        <v>1.67</v>
+        <v>2.56</v>
       </c>
       <c r="X35" t="n">
-        <v>0.78</v>
+        <v>0.33</v>
       </c>
       <c r="Y35" t="n">
-        <v>1.5</v>
+        <v>1.69</v>
       </c>
       <c r="Z35" t="n">
-        <v>1.45</v>
+        <v>1</v>
       </c>
       <c r="AA35" t="n">
-        <v>2.95</v>
+        <v>2.69</v>
       </c>
       <c r="AB35" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="AC35" t="n">
-        <v>0</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="AD35" t="n">
-        <v>0</v>
+        <v>3.68</v>
       </c>
       <c r="AE35" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="AF35" t="n">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="AG35" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="AH35" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AI35" t="n">
-        <v>0</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="36">
@@ -4561,13 +4561,13 @@
         <v>8.800000000000001</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>10.75</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="M36" t="n">
         <v>3.65</v>
@@ -4576,7 +4576,7 @@
         <v>1.9</v>
       </c>
       <c r="O36" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="P36" t="n">
         <v>1.36</v>
@@ -4591,13 +4591,13 @@
         <v>1.67</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="W36" t="n">
         <v>1.67</v>
@@ -4615,13 +4615,13 @@
         <v>2.62</v>
       </c>
       <c r="AB36" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AC36" t="n">
-        <v>0</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="AD36" t="n">
-        <v>0</v>
+        <v>4.34</v>
       </c>
       <c r="AE36" t="n">
         <v>1.48</v>
@@ -4633,10 +4633,10 @@
         <v>2.25</v>
       </c>
       <c r="AH36" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AI36" t="n">
-        <v>0</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="37">
@@ -4658,100 +4658,100 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Millonarios</t>
+          <t>Deportes Tolima</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>La Equidad</t>
+          <t>Atlético Nacional</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1.58</v>
+        <v>2.33</v>
       </c>
       <c r="H37" t="n">
-        <v>4.3</v>
+        <v>3.15</v>
       </c>
       <c r="I37" t="n">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>10.25</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="M37" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="N37" t="n">
-        <v>2.02</v>
+        <v>1.87</v>
       </c>
       <c r="O37" t="n">
-        <v>1.79</v>
+        <v>1.75</v>
       </c>
       <c r="P37" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="Q37" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="R37" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="S37" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="T37" t="n">
-        <v>1.16</v>
+        <v>1.35</v>
       </c>
       <c r="U37" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="V37" t="n">
-        <v>2.25</v>
+        <v>1.62</v>
       </c>
       <c r="W37" t="n">
-        <v>2.56</v>
+        <v>1.89</v>
       </c>
       <c r="X37" t="n">
-        <v>0.67</v>
+        <v>1.67</v>
       </c>
       <c r="Y37" t="n">
-        <v>1.66</v>
+        <v>1.9</v>
       </c>
       <c r="Z37" t="n">
-        <v>1.17</v>
+        <v>1.47</v>
       </c>
       <c r="AA37" t="n">
-        <v>2.83</v>
+        <v>3.37</v>
       </c>
       <c r="AB37" t="n">
-        <v>0</v>
+        <v>1.94</v>
       </c>
       <c r="AC37" t="n">
-        <v>0</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="AD37" t="n">
-        <v>0</v>
+        <v>2.16</v>
       </c>
       <c r="AE37" t="n">
-        <v>1.67</v>
+        <v>1.3</v>
       </c>
       <c r="AF37" t="n">
-        <v>2.1</v>
+        <v>1.62</v>
       </c>
       <c r="AG37" t="n">
-        <v>2.7</v>
+        <v>2</v>
       </c>
       <c r="AH37" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="AI37" t="n">
-        <v>0</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="38">
@@ -4791,22 +4791,22 @@
         <v>1.91</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>10.25</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>3.15</v>
       </c>
       <c r="N38" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="O38" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="P38" t="n">
         <v>1.44</v>
@@ -4845,16 +4845,16 @@
         <v>2.47</v>
       </c>
       <c r="AB38" t="n">
-        <v>0</v>
+        <v>3.14</v>
       </c>
       <c r="AC38" t="n">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="AD38" t="n">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="AE38" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="AF38" t="n">
         <v>1.5</v>
@@ -4866,7 +4866,7 @@
         <v>2.25</v>
       </c>
       <c r="AI38" t="n">
-        <v>0</v>
+        <v>3.25</v>
       </c>
     </row>
     <row r="39">
@@ -4888,40 +4888,40 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Atlético Bucaramanga</t>
+          <t>Deportivo Pereira</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>América de Cali</t>
+          <t>Alianza Petrolera</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>2.65</v>
+        <v>2.12</v>
       </c>
       <c r="H39" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="I39" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="J39" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="K39" t="n">
+        <v>7</v>
+      </c>
+      <c r="L39" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="M39" t="n">
         <v>2.8</v>
       </c>
-      <c r="J39" t="n">
-        <v>0</v>
-      </c>
-      <c r="K39" t="n">
-        <v>0</v>
-      </c>
-      <c r="L39" t="n">
-        <v>0</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0</v>
-      </c>
       <c r="N39" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="O39" t="n">
-        <v>1.78</v>
+        <v>1.67</v>
       </c>
       <c r="P39" t="n">
         <v>1.44</v>
@@ -4936,52 +4936,52 @@
         <v>1.83</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="W39" t="n">
-        <v>1.11</v>
+        <v>1.44</v>
       </c>
       <c r="X39" t="n">
-        <v>1.22</v>
+        <v>0.67</v>
       </c>
       <c r="Y39" t="n">
-        <v>1.52</v>
+        <v>1.6</v>
       </c>
       <c r="Z39" t="n">
         <v>1.31</v>
       </c>
       <c r="AA39" t="n">
-        <v>2.83</v>
+        <v>2.91</v>
       </c>
       <c r="AB39" t="n">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="AC39" t="n">
-        <v>0</v>
+        <v>8.9</v>
       </c>
       <c r="AD39" t="n">
-        <v>0</v>
+        <v>2.72</v>
       </c>
       <c r="AE39" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AF39" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="AG39" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AH39" t="n">
         <v>2.5</v>
       </c>
       <c r="AI39" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="40">
@@ -5003,97 +5003,97 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Deportivo Cali</t>
+          <t>Millonarios</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Boyacá Chicó</t>
+          <t>La Equidad</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>2.49</v>
+        <v>1.58</v>
       </c>
       <c r="H40" t="n">
-        <v>3.05</v>
+        <v>4.3</v>
       </c>
       <c r="I40" t="n">
-        <v>2.95</v>
+        <v>5</v>
       </c>
       <c r="J40" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="K40" t="n">
-        <v>7.5</v>
+        <v>10.5</v>
       </c>
       <c r="L40" t="n">
-        <v>1.38</v>
+        <v>1.3</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="N40" t="n">
-        <v>2.35</v>
+        <v>1.91</v>
       </c>
       <c r="O40" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="P40" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="Q40" t="n">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="R40" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="S40" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="T40" t="n">
-        <v>1.31</v>
+        <v>1.16</v>
       </c>
       <c r="U40" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="V40" t="n">
-        <v>1.69</v>
+        <v>2.25</v>
       </c>
       <c r="W40" t="n">
-        <v>1.56</v>
+        <v>2.56</v>
       </c>
       <c r="X40" t="n">
-        <v>0.78</v>
+        <v>0.67</v>
       </c>
       <c r="Y40" t="n">
-        <v>1.74</v>
+        <v>1.66</v>
       </c>
       <c r="Z40" t="n">
-        <v>0.98</v>
+        <v>1.17</v>
       </c>
       <c r="AA40" t="n">
-        <v>2.72</v>
+        <v>2.83</v>
       </c>
       <c r="AB40" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="AC40" t="n">
-        <v>0</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="AD40" t="n">
-        <v>0</v>
+        <v>3.52</v>
       </c>
       <c r="AE40" t="n">
-        <v>1.44</v>
+        <v>1.67</v>
       </c>
       <c r="AF40" t="n">
-        <v>1.73</v>
+        <v>2.1</v>
       </c>
       <c r="AG40" t="n">
-        <v>2.2</v>
+        <v>2.7</v>
       </c>
       <c r="AH40" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AI40" t="n">
         <v>0</v>
@@ -5102,7 +5102,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Colombia Categoria Primera A</t>
+          <t>Peru Primera División</t>
         </is>
       </c>
       <c r="B41" s="2" t="n">
@@ -5114,104 +5114,104 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Rionegro Águilas</t>
+          <t>Deportivo Binacional</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Jaguares de Córdoba</t>
+          <t>Sporting Cristal</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>1.73</v>
+        <v>2.5</v>
       </c>
       <c r="H41" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="I41" t="n">
-        <v>5.2</v>
+        <v>2.8</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>15.25</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>3.74</v>
       </c>
       <c r="N41" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="O41" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="P41" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="R41" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="S41" t="n">
         <v>2.1</v>
       </c>
-      <c r="O41" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="P41" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="R41" t="n">
+      <c r="T41" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U41" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="V41" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="W41" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="X41" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="AB41" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AC41" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD41" t="n">
         <v>2.1</v>
       </c>
-      <c r="S41" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="T41" t="n">
-        <v>0</v>
-      </c>
-      <c r="U41" t="n">
-        <v>0</v>
-      </c>
-      <c r="V41" t="n">
-        <v>0</v>
-      </c>
-      <c r="W41" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="X41" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="Y41" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="Z41" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA41" t="n">
-        <v>2.69</v>
-      </c>
-      <c r="AB41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD41" t="n">
-        <v>0</v>
-      </c>
       <c r="AE41" t="n">
-        <v>1.48</v>
+        <v>1.15</v>
       </c>
       <c r="AF41" t="n">
-        <v>1.75</v>
+        <v>1.29</v>
       </c>
       <c r="AG41" t="n">
-        <v>2.25</v>
+        <v>1.51</v>
       </c>
       <c r="AH41" t="n">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="AI41" t="n">
-        <v>0</v>
+        <v>2.37</v>
       </c>
     </row>
     <row r="42">
@@ -5242,13 +5242,13 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>1.67</v>
+        <v>1.71</v>
       </c>
       <c r="H42" t="n">
-        <v>3.9</v>
+        <v>3.78</v>
       </c>
       <c r="I42" t="n">
-        <v>5</v>
+        <v>4.66</v>
       </c>
       <c r="J42" t="n">
         <v>1.04</v>
@@ -5263,7 +5263,7 @@
         <v>3.6</v>
       </c>
       <c r="N42" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="O42" t="n">
         <v>1.9</v>
@@ -5332,7 +5332,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>USA MLS</t>
+          <t>Paraguay Division Profesional</t>
         </is>
       </c>
       <c r="B43" s="2" t="n">
@@ -5344,104 +5344,104 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Minnesota United</t>
+          <t>Tacuary</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Houston Dynamo</t>
+          <t>Guaraní</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>2.05</v>
+        <v>2.8</v>
       </c>
       <c r="H43" t="n">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="I43" t="n">
-        <v>3.4</v>
+        <v>2.41</v>
       </c>
       <c r="J43" t="n">
-        <v>1.03</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>1.22</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>1.9</v>
+        <v>1.94</v>
       </c>
       <c r="O43" t="n">
-        <v>1.87</v>
+        <v>1.84</v>
       </c>
       <c r="P43" t="n">
-        <v>1.37</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>2.8</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>1.72</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>1.98</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>1.7</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="X43" t="n">
-        <v>0.25</v>
+        <v>1.5</v>
       </c>
       <c r="Y43" t="n">
-        <v>1.37</v>
+        <v>1.23</v>
       </c>
       <c r="Z43" t="n">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="AA43" t="n">
-        <v>2.65</v>
+        <v>2.48</v>
       </c>
       <c r="AB43" t="n">
-        <v>1.57</v>
+        <v>0</v>
       </c>
       <c r="AC43" t="n">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="AD43" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AE43" t="n">
-        <v>1.14</v>
+        <v>0</v>
       </c>
       <c r="AF43" t="n">
-        <v>1.29</v>
+        <v>0</v>
       </c>
       <c r="AG43" t="n">
-        <v>1.52</v>
+        <v>0</v>
       </c>
       <c r="AH43" t="n">
-        <v>1.94</v>
+        <v>0</v>
       </c>
       <c r="AI43" t="n">
-        <v>2.47</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -5463,106 +5463,106 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>FC Dallas</t>
+          <t>Minnesota United</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Vancouver Whitecaps</t>
+          <t>Houston Dynamo</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>1.67</v>
+        <v>2.11</v>
       </c>
       <c r="H44" t="n">
-        <v>3.8</v>
+        <v>3.46</v>
       </c>
       <c r="I44" t="n">
-        <v>5</v>
+        <v>3.31</v>
       </c>
       <c r="J44" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K44" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L44" t="n">
-        <v>1.33</v>
+        <v>1.22</v>
       </c>
       <c r="M44" t="n">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="N44" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="O44" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="P44" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="Q44" t="n">
-        <v>2.95</v>
+        <v>2.8</v>
       </c>
       <c r="R44" t="n">
-        <v>1.95</v>
+        <v>1.72</v>
       </c>
       <c r="S44" t="n">
-        <v>1.83</v>
+        <v>1.98</v>
       </c>
       <c r="T44" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="U44" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="V44" t="n">
-        <v>2.1</v>
+        <v>1.7</v>
       </c>
       <c r="W44" t="n">
-        <v>2</v>
+        <v>0.75</v>
       </c>
       <c r="X44" t="n">
-        <v>0.6</v>
+        <v>0.25</v>
       </c>
       <c r="Y44" t="n">
-        <v>1.23</v>
+        <v>1.37</v>
       </c>
       <c r="Z44" t="n">
-        <v>1.45</v>
+        <v>1.28</v>
       </c>
       <c r="AA44" t="n">
-        <v>2.68</v>
+        <v>2.65</v>
       </c>
       <c r="AB44" t="n">
-        <v>1.75</v>
+        <v>1.57</v>
       </c>
       <c r="AC44" t="n">
         <v>7.5</v>
       </c>
       <c r="AD44" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="AE44" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AF44" t="n">
-        <v>1.44</v>
+        <v>1.29</v>
       </c>
       <c r="AG44" t="n">
-        <v>1.8</v>
+        <v>1.52</v>
       </c>
       <c r="AH44" t="n">
-        <v>2.35</v>
+        <v>1.94</v>
       </c>
       <c r="AI44" t="n">
-        <v>3.25</v>
+        <v>2.47</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Paraguay Division Profesional</t>
+          <t>USA MLS</t>
         </is>
       </c>
       <c r="B45" s="2" t="n">
@@ -5574,104 +5574,104 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Tacuary</t>
+          <t>FC Dallas</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Guaraní</t>
+          <t>Vancouver Whitecaps</t>
         </is>
       </c>
       <c r="G45" t="n">
-        <v>2.75</v>
+        <v>2.05</v>
       </c>
       <c r="H45" t="n">
-        <v>3.25</v>
+        <v>3.7</v>
       </c>
       <c r="I45" t="n">
-        <v>2.3</v>
+        <v>3.65</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="N45" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="O45" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="P45" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="R45" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S45" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="T45" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="U45" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="V45" t="n">
         <v>2.1</v>
       </c>
-      <c r="O45" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="P45" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q45" t="n">
-        <v>0</v>
-      </c>
-      <c r="R45" t="n">
-        <v>0</v>
-      </c>
-      <c r="S45" t="n">
-        <v>0</v>
-      </c>
-      <c r="T45" t="n">
-        <v>0</v>
-      </c>
-      <c r="U45" t="n">
-        <v>0</v>
-      </c>
-      <c r="V45" t="n">
-        <v>0</v>
-      </c>
       <c r="W45" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X45" t="n">
-        <v>1.5</v>
+        <v>0.6</v>
       </c>
       <c r="Y45" t="n">
         <v>1.23</v>
       </c>
       <c r="Z45" t="n">
-        <v>1.25</v>
+        <v>1.45</v>
       </c>
       <c r="AA45" t="n">
-        <v>2.48</v>
+        <v>2.68</v>
       </c>
       <c r="AB45" t="n">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="AC45" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="AD45" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="AE45" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="AF45" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="AG45" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="AH45" t="n">
-        <v>0</v>
+        <v>2.35</v>
       </c>
       <c r="AI45" t="n">
-        <v>0</v>
+        <v>3.25</v>
       </c>
     </row>
     <row r="46">
@@ -5817,7 +5817,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="H47" t="n">
         <v>3.75</v>
@@ -5838,10 +5838,10 @@
         <v>4</v>
       </c>
       <c r="N47" t="n">
-        <v>1.78</v>
+        <v>1.73</v>
       </c>
       <c r="O47" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="P47" t="n">
         <v>1.33</v>
@@ -5932,13 +5932,13 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="H48" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="I48" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="J48" t="n">
         <v>1.05</v>
@@ -5953,10 +5953,10 @@
         <v>3.75</v>
       </c>
       <c r="N48" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="O48" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="P48" t="n">
         <v>1.36</v>
@@ -5995,28 +5995,28 @@
         <v>3.16</v>
       </c>
       <c r="AB48" t="n">
-        <v>0</v>
+        <v>2.52</v>
       </c>
       <c r="AC48" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AD48" t="n">
-        <v>0</v>
+        <v>1.82</v>
       </c>
       <c r="AE48" t="n">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="AF48" t="n">
         <v>1.88</v>
       </c>
       <c r="AG48" t="n">
-        <v>0</v>
+        <v>2.35</v>
       </c>
       <c r="AH48" t="n">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="AI48" t="n">
-        <v>0</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="49">
@@ -6047,13 +6047,13 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="H49" t="n">
-        <v>4.33</v>
+        <v>4.24</v>
       </c>
       <c r="I49" t="n">
-        <v>6</v>
+        <v>5.17</v>
       </c>
       <c r="J49" t="n">
         <v>1.02</v>
@@ -6068,10 +6068,10 @@
         <v>5</v>
       </c>
       <c r="N49" t="n">
-        <v>1.68</v>
+        <v>1.61</v>
       </c>
       <c r="O49" t="n">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="P49" t="n">
         <v>1.28</v>
@@ -6162,13 +6162,13 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>1.5</v>
+        <v>1.54</v>
       </c>
       <c r="H50" t="n">
-        <v>4.33</v>
+        <v>4.3</v>
       </c>
       <c r="I50" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="J50" t="n">
         <v>1.02</v>
@@ -6183,10 +6183,10 @@
         <v>4.2</v>
       </c>
       <c r="N50" t="n">
-        <v>1.68</v>
+        <v>1.61</v>
       </c>
       <c r="O50" t="n">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="P50" t="n">
         <v>1.3</v>
